--- a/framework-web/app/aml/doc/AML.xlsx
+++ b/framework-web/app/aml/doc/AML.xlsx
@@ -1,29 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="878" firstSheet="0" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" tabRatio="878" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Customer 360" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Account 360" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="AML Monitoring Summary" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="AML Investigation Cockpit" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Rule Assessment" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Model Assessment" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Data Assessment" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Business Rules" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Features" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Data Model" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="DDL" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Sheet7" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer 360" sheetId="2" r:id="rId2"/>
+    <sheet name="Account 360" sheetId="3" r:id="rId3"/>
+    <sheet name="AML Monitoring Summary" sheetId="4" r:id="rId4"/>
+    <sheet name="AML Investigation Cockpit" sheetId="5" r:id="rId5"/>
+    <sheet name="Rule Assessment" sheetId="6" r:id="rId6"/>
+    <sheet name="Model Assessment" sheetId="7" r:id="rId7"/>
+    <sheet name="Data Assessment" sheetId="8" r:id="rId8"/>
+    <sheet name="Business Rules" sheetId="9" r:id="rId9"/>
+    <sheet name="Features" sheetId="10" r:id="rId10"/>
+    <sheet name="Data Model" sheetId="11" r:id="rId11"/>
+    <sheet name="DDL" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet7" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sheet1!$A$1:$A$62</definedName>
+  </definedNames>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -954,49 +961,49 @@
     <t>INT(10),</t>
   </si>
   <si>
-    <t>     </t>
-  </si>
-  <si>
-    <t> NULL    </t>
-  </si>
-  <si>
-    <t> null_fail_count</t>
-  </si>
-  <si>
-    <t> YES  </t>
-  </si>
-  <si>
-    <t> value_pass_count      </t>
-  </si>
-  <si>
-    <t> value_fail_count      </t>
-  </si>
-  <si>
-    <t> range_pass_count      </t>
+    <t/>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>null_fail_count</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>value_pass_count</t>
+  </si>
+  <si>
+    <t>value_fail_count</t>
+  </si>
+  <si>
+    <t>range_pass_count</t>
   </si>
   <si>
     <t>He has no clue</t>
   </si>
   <si>
-    <t> range_fail_count      </t>
+    <t>range_fail_count</t>
   </si>
   <si>
     <t>He is not informed</t>
   </si>
   <si>
-    <t> datatype_pass_count   </t>
-  </si>
-  <si>
-    <t> datatype_fail_count   </t>
-  </si>
-  <si>
-    <t> format_pass_count     </t>
-  </si>
-  <si>
-    <t> format_fail_count     </t>
-  </si>
-  <si>
-    <t> length_pass_count     </t>
+    <t>datatype_pass_count</t>
+  </si>
+  <si>
+    <t>datatype_fail_count</t>
+  </si>
+  <si>
+    <t>format_pass_count</t>
+  </si>
+  <si>
+    <t>format_fail_count</t>
+  </si>
+  <si>
+    <t>length_pass_count</t>
   </si>
   <si>
     <t>Null Type</t>
@@ -1005,49 +1012,49 @@
     <t>Score</t>
   </si>
   <si>
-    <t> length_fail_count     </t>
-  </si>
-  <si>
-    <t> refint_pass_count     </t>
-  </si>
-  <si>
-    <t> refint_fail_count     </t>
-  </si>
-  <si>
-    <t> dup_pass_count </t>
-  </si>
-  <si>
-    <t> dup_fail_count </t>
-  </si>
-  <si>
-    <t> custom_pass_count     </t>
-  </si>
-  <si>
-    <t> custom_fail_count     </t>
-  </si>
-  <si>
-    <t> domain_pass_count     </t>
-  </si>
-  <si>
-    <t> domain_fail_count     </t>
-  </si>
-  <si>
-    <t> blank_pass_count      </t>
-  </si>
-  <si>
-    <t> blank_fail_count      </t>
-  </si>
-  <si>
-    <t> expression_pass_count </t>
-  </si>
-  <si>
-    <t> expression_fail_count </t>
-  </si>
-  <si>
-    <t> case_pass_count</t>
-  </si>
-  <si>
-    <t> case_fail_count</t>
+    <t>length_fail_count</t>
+  </si>
+  <si>
+    <t>refint_pass_count</t>
+  </si>
+  <si>
+    <t>refint_fail_count</t>
+  </si>
+  <si>
+    <t>dup_pass_count</t>
+  </si>
+  <si>
+    <t>dup_fail_count</t>
+  </si>
+  <si>
+    <t>custom_pass_count</t>
+  </si>
+  <si>
+    <t>custom_fail_count</t>
+  </si>
+  <si>
+    <t>domain_pass_count</t>
+  </si>
+  <si>
+    <t>domain_fail_count</t>
+  </si>
+  <si>
+    <t>blank_pass_count</t>
+  </si>
+  <si>
+    <t>blank_fail_count</t>
+  </si>
+  <si>
+    <t>expression_pass_count</t>
+  </si>
+  <si>
+    <t>expression_fail_count</t>
+  </si>
+  <si>
+    <t>case_pass_count</t>
+  </si>
+  <si>
+    <t>case_fail_count</t>
   </si>
   <si>
     <t>Account Focus - Money Transfers</t>
@@ -1089,169 +1096,169 @@
     <t>account_focus_all_round_dollar_cash_transfers</t>
   </si>
   <si>
-    <t>Account Focus - Net Wire Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Net Cash Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Incoming Wire Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Incoming Cash Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Outgoing Cash Transfers </t>
+    <t>Account Focus - Net Wire Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Net Cash Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Incoming Wire Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Incoming Cash Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Outgoing Cash Transfers</t>
   </si>
   <si>
     <t>Account Focus - Outgoing Wire Transfers</t>
   </si>
   <si>
-    <t>C Focus - Net Wire Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Net Cash Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Incoming Wire Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Incoming Cash Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Outgoing Cash Transfers </t>
+    <t>C Focus - Net Wire Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Net Cash Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Incoming Wire Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Incoming Cash Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Outgoing Cash Transfers</t>
   </si>
   <si>
     <t>Customer Focus - Outgoing Wire Transfers</t>
   </si>
   <si>
-    <t>Account Focus - All Round Dollar Wire Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Outgoing Round Dollar Cash Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Incoming Round Dollar Cash Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - All Round Dollar Cash Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Outgoing Round Dollar Wire Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Incoming Round Dollar Wire Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - All Round Dollar Wire Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Outgoing Round Dollar Cash Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Incoming Round Dollar Cash Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - All Round Dollar Cash Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Outgoing Round Dollar Wire Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Incoming Round Dollar Wire Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - High Velocity Wire Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - High Velocity Cash Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - High Velocity Wire Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - High Velocity Cash Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Outgoing Check Sequencing </t>
+    <t>Account Focus - All Round Dollar Wire Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Outgoing Round Dollar Cash Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Incoming Round Dollar Cash Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - All Round Dollar Cash Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Outgoing Round Dollar Wire Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Incoming Round Dollar Wire Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - All Round Dollar Wire Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Outgoing Round Dollar Cash Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Incoming Round Dollar Cash Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - All Round Dollar Cash Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Outgoing Round Dollar Wire Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Incoming Round Dollar Wire Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - High Velocity Wire Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - High Velocity Cash Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - High Velocity Wire Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - High Velocity Cash Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Outgoing Check Sequencing</t>
   </si>
   <si>
     <t>Account Focus - Incoming Check Sequencing</t>
   </si>
   <si>
-    <t>Customer Focus - Outgoing Check Sequencing </t>
+    <t>Customer Focus - Outgoing Check Sequencing</t>
   </si>
   <si>
     <t>Customer Focus - Incoming Check Sequencing</t>
   </si>
   <si>
-    <t>Account Focus - Outgoing Cross Border Cash Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Incoming Cross Border Cash Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Incoming Cross Border Wire Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Net Cross Border Wire Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Outgoing Cross Border Wire Transfers </t>
+    <t>Account Focus - Outgoing Cross Border Cash Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Incoming Cross Border Cash Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Incoming Cross Border Wire Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Net Cross Border Wire Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Outgoing Cross Border Wire Transfers</t>
   </si>
   <si>
     <t>Account Focus - Net Cross Border Cash Transfers</t>
   </si>
   <si>
-    <t>Customer Focus - Outgoing Cross Border Cash Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Incoming Cross Border Cash Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Incoming Cross Border Wire Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Net Cross Border Wire Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Outgoing Cross Border Wire Transfers </t>
+    <t>Customer Focus - Outgoing Cross Border Cash Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Incoming Cross Border Cash Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Incoming Cross Border Wire Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Net Cross Border Wire Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Outgoing Cross Border Wire Transfers</t>
   </si>
   <si>
     <t>Customer Focus - Net Cross Border Cash Transfers</t>
   </si>
   <si>
-    <t>Account Focus - Outgoing High Risk Geo Cash Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Incoming High Risk Geo Wire Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Net High Risk Geo Wire Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Incoming High Risk Geo Cash Transfers </t>
-  </si>
-  <si>
-    <t>Account Focus - Net High Risk Geo Cash Transfers </t>
+    <t>Account Focus - Outgoing High Risk Geo Cash Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Incoming High Risk Geo Wire Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Net High Risk Geo Wire Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Incoming High Risk Geo Cash Transfers</t>
+  </si>
+  <si>
+    <t>Account Focus - Net High Risk Geo Cash Transfers</t>
   </si>
   <si>
     <t>Account Focus - Outgoing High Risk Geo Wire Transfers</t>
   </si>
   <si>
-    <t>Customer Focus – Outgoing High Risk Geo Cash Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Incoming High Risk Geo Wire Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Net High Risk Geo Wire Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Incoming High Risk Geo Cash Transfers </t>
-  </si>
-  <si>
-    <t>Customer Focus - Net High Risk Geo Cash Transfers </t>
+    <t>Customer Focus – Outgoing High Risk Geo Cash Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Incoming High Risk Geo Wire Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Net High Risk Geo Wire Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Incoming High Risk Geo Cash Transfers</t>
+  </si>
+  <si>
+    <t>Customer Focus - Net High Risk Geo Cash Transfers</t>
   </si>
   <si>
     <t>Customer Focus - Outgoing High Risk Geo Wire Transfers</t>
@@ -1269,12 +1276,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="DD/MMM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mmm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1285,26 +1291,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1326,7 +1317,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1381,251 +1372,181 @@
         <bgColor rgb="FFF79646"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1684,2747 +1605,3042 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3296296296296"/>
-    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.662962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.5296296296296"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
+    <row r="4" spans="2:12">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="2:12">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="2:12">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="2:12">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="2:12">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="2:12">
+      <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:12">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:12">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="2:12">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="2:12">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="2:12">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="2:12">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="0" t="n">
+    <row r="16" spans="2:12">
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16">
         <v>3</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16">
         <v>6</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="L16" s="0" t="n">
-        <f aca="false">2*6*3*2</f>
+      <c r="L16">
+        <f>2*6*3*2</f>
         <v>72</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:14">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="N17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="0" t="s">
+    <row r="18" spans="2:14">
+      <c r="H18" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="N18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="2:14">
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="N19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="2:14">
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="N20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="2:14">
+      <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>47</v>
       </c>
-      <c r="N21" s="0" t="s">
+      <c r="N21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="2:14">
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" t="s">
         <v>49</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="N22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="0" t="s">
+    <row r="25" spans="2:14">
+      <c r="E25" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="0" t="n">
+    <row r="26" spans="2:14">
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="0" t="n">
+    <row r="27" spans="2:14">
+      <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="0" t="n">
+    <row r="28" spans="2:14">
+      <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="81"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.5296296296296"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="16" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="16" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="16" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="16" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="16" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="16" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="16" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="16" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="16" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="16" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="16" t="s">
         <v>170</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1592592592593"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.3333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4962962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.3333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.5296296296296"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>181</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>184</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>189</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>181</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>200</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>184</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>202</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>177</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>211</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>181</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
+    <row r="23" spans="1:7">
+      <c r="C23" t="s">
         <v>214</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
+    <row r="24" spans="1:7">
+      <c r="C24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="13" t="s">
+    <row r="26" spans="1:7">
+      <c r="C26" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+    <row r="27" spans="1:7">
+      <c r="C27" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
+    <row r="28" spans="1:7">
+      <c r="C28" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
+    <row r="29" spans="1:7">
+      <c r="C29" t="s">
         <v>181</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
+    <row r="30" spans="1:7">
+      <c r="C30" t="s">
         <v>184</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
+    <row r="31" spans="1:7">
+      <c r="C31" t="s">
         <v>217</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
+    <row r="32" spans="1:7">
+      <c r="C32" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="18.9962962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="12"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="19.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="14" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="28.162962962963"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="14"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="14" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="14" width="16.162962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="14" width="10.8333333333333"/>
+    <col min="1" max="1025" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="K1" s="0"/>
-      <c r="L1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2"/>
+      <c r="C2" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="14" t="str">
-        <f aca="false">CONCATENATE(C2," ",D2,",")</f>
+      <c r="E2" s="18" t="str">
+        <f t="shared" ref="E2:E25" si="0">CONCATENATE(C2," ",D2,",")</f>
         <v>rule_uuid varchar(50),</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="14" t="str">
-        <f aca="false">CONCATENATE(F2," ",G2,",")</f>
+      <c r="H2" s="18" t="str">
+        <f t="shared" ref="H2:H16" si="1">CONCATENATE(F2," ",G2,",")</f>
         <v>rule_uuid varchar(50),</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="L2" s="14" t="str">
-        <f aca="false">CONCATENATE(J2," ",K2,",")</f>
+      <c r="L2" s="18" t="str">
+        <f>CONCATENATE(J2," ",K2,",")</f>
         <v>security_id int(10),</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3"/>
+      <c r="C3" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="14" t="str">
-        <f aca="false">CONCATENATE(C3," ",D3,",")</f>
+      <c r="E3" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>rule_version int(10),</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="14" t="str">
-        <f aca="false">CONCATENATE(F3," ",G3,",")</f>
+      <c r="H3" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>rule_version int(10),</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="L3" s="14" t="str">
-        <f aca="false">CONCATENATE(J3," ",K3,",")</f>
+      <c r="L3" s="18" t="str">
+        <f>CONCATENATE(J3," ",K3,",")</f>
         <v>security_symbol varchar(50),</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4"/>
+      <c r="C4" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="14" t="str">
-        <f aca="false">CONCATENATE(C4," ",D4,",")</f>
+      <c r="E4" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>rule_name varchar(100),</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="14" t="str">
-        <f aca="false">CONCATENATE(F4," ",G4,",")</f>
+      <c r="H4" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>rule_name varchar(100),</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="14" t="str">
-        <f aca="false">CONCATENATE(J4," ",K4,",")</f>
+      <c r="L4" s="18" t="str">
+        <f>CONCATENATE(J4," ",K4,",")</f>
         <v>ric_code varchar(50),</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="0"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5"/>
+      <c r="C5" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="14" t="str">
-        <f aca="false">CONCATENATE(C5," ",D5,",")</f>
+      <c r="E5" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>datapod_uuid varchar(50),</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="H5" s="14" t="str">
-        <f aca="false">CONCATENATE(F5," ",G5,",")</f>
+      <c r="H5" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>datapod_uuid varchar(50),</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="L5" s="14" t="str">
-        <f aca="false">CONCATENATE(J5," ",K5,",")</f>
+      <c r="L5" s="18" t="str">
+        <f>CONCATENATE(J5," ",K5,",")</f>
         <v>security_description varchar(50),</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="0"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6"/>
+      <c r="C6" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="14" t="str">
-        <f aca="false">CONCATENATE(C6," ",D6,",")</f>
+      <c r="E6" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>datapod_version int(10),</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="H6" s="14" t="str">
-        <f aca="false">CONCATENATE(F6," ",G6,",")</f>
+      <c r="H6" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>datapod_version int(10),</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="L6" s="14" t="str">
-        <f aca="false">CONCATENATE(J6," ",K6,",")</f>
+      <c r="L6" s="18" t="str">
+        <f>CONCATENATE(J6," ",K6,",")</f>
         <v>version int(10),</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="B7" s="0"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7"/>
+      <c r="C7" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="14" t="str">
-        <f aca="false">CONCATENATE(C7," ",D7,",")</f>
+      <c r="E7" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>datapod_name varchar(50),</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="H7" s="14" t="str">
-        <f aca="false">CONCATENATE(F7," ",G7,",")</f>
+      <c r="H7" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>datapod_name varchar(50),</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8"/>
+      <c r="C8" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="14" t="str">
-        <f aca="false">CONCATENATE(C8," ",D8,",")</f>
+      <c r="E8" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>attribute_id varchar(50),</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="14" t="str">
-        <f aca="false">CONCATENATE(F8," ",G8,",")</f>
+      <c r="H8" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>all_check_pass varchar(10),</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:12">
+      <c r="A9" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="B9" s="0"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9"/>
+      <c r="C9" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E9" s="14" t="str">
-        <f aca="false">CONCATENATE(C9," ",D9,",")</f>
+      <c r="E9" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>attribute_name varchar(50),</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="14" t="str">
-        <f aca="false">CONCATENATE(F9," ",G9,",")</f>
+      <c r="H9" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>total_row_count int(10),</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:12">
+      <c r="A10" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="B10" s="0"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10"/>
+      <c r="C10" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="14" t="str">
-        <f aca="false">CONCATENATE(C10," ",D10,",")</f>
+      <c r="E10" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>attribute_value varchar(500),</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="H10" s="14" t="str">
-        <f aca="false">CONCATENATE(F10," ",G10,",")</f>
+      <c r="H10" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>total_pass_count int(10),</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:12">
+      <c r="A11" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="B11" s="0"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11"/>
+      <c r="C11" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="14" t="str">
-        <f aca="false">CONCATENATE(C11," ",D11,",")</f>
+      <c r="E11" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>rowkey_name varchar(500),</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="H11" s="14" t="str">
-        <f aca="false">CONCATENATE(F11," ",G11,",")</f>
+      <c r="H11" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>total_fail_count int(10),</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="0"/>
-      <c r="C12" s="14" t="s">
+      <c r="B12"/>
+      <c r="C12" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="14" t="str">
-        <f aca="false">CONCATENATE(C12," ",D12,",")</f>
+      <c r="E12" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>rowkey_value varchar(500),</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="H12" s="14" t="str">
-        <f aca="false">CONCATENATE(F12," ",G12,",")</f>
+      <c r="H12" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>threshold_type varchar(50),</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E13" s="14" t="str">
-        <f aca="false">CONCATENATE(C13," ",D13,",")</f>
+      <c r="E13" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>null_check_pass varchar(1),</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="H13" s="14" t="str">
-        <f aca="false">CONCATENATE(F13," ",G13,",")</f>
+      <c r="H13" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>threshold_limit int(3),</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E14" s="14" t="str">
-        <f aca="false">CONCATENATE(C14," ",D14,",")</f>
+      <c r="E14" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>value_check_pass varchar(1),</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H14" s="14" t="str">
-        <f aca="false">CONCATENATE(F14," ",G14,",")</f>
+      <c r="H14" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>threshold_ind varchar(6),</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E15" s="14" t="str">
-        <f aca="false">CONCATENATE(C15," ",D15,",")</f>
+      <c r="E15" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>range_check_pass varchar(1),</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="H15" s="14" t="str">
-        <f aca="false">CONCATENATE(F15," ",G15,",")</f>
+      <c r="H15" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>score int(3),</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="14" t="str">
-        <f aca="false">CONCATENATE(C16," ",D16,",")</f>
+      <c r="E16" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>datatype_check_pass varchar(1),</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="H16" s="14" t="str">
-        <f aca="false">CONCATENATE(F16," ",G16,",")</f>
+      <c r="H16" s="18" t="str">
+        <f t="shared" si="1"/>
         <v>version int(10),</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="14" t="str">
-        <f aca="false">CONCATENATE(C17," ",D17,",")</f>
+      <c r="E17" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>format_check_pass varchar(1),</v>
       </c>
-      <c r="H17" s="14" t="n">
+      <c r="H17" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="1:8">
+      <c r="B18" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E18" s="14" t="str">
-        <f aca="false">CONCATENATE(C18," ",D18,",")</f>
+      <c r="E18" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>length_check_pass varchar(1),</v>
       </c>
-      <c r="H18" s="14" t="n">
+      <c r="H18" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="14" t="s">
+    <row r="19" spans="1:8">
+      <c r="B19" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E19" s="14" t="str">
-        <f aca="false">CONCATENATE(C19," ",D19,",")</f>
+      <c r="E19" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>ri_check_pass varchar(1),</v>
       </c>
-      <c r="H19" s="14" t="n">
+      <c r="H19" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="1:8">
+      <c r="B20" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E20" s="14" t="str">
-        <f aca="false">CONCATENATE(C20," ",D20,",")</f>
+      <c r="E20" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>dup_check_pass varchar(1),</v>
       </c>
-      <c r="H20" s="14" t="n">
+      <c r="H20" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="1:8">
+      <c r="B21" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="14" t="str">
-        <f aca="false">CONCATENATE(C21," ",D21,",")</f>
+      <c r="E21" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>custom_check_pass varchar(1),</v>
       </c>
-      <c r="H21" s="14" t="n">
+      <c r="H21" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="14" t="s">
+    <row r="22" spans="1:8">
+      <c r="B22" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="14" t="str">
-        <f aca="false">CONCATENATE(C22," ",D22,",")</f>
+      <c r="E22" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>domain_check_pass varchar(1),</v>
       </c>
-      <c r="H22" s="14" t="n">
+      <c r="H22" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="1:8">
+      <c r="B23" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E23" s="14" t="str">
-        <f aca="false">CONCATENATE(C23," ",D23,",")</f>
+      <c r="E23" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>blankspace_check_pass varchar(1),</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="1:8">
+      <c r="B24" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E24" s="14" t="str">
-        <f aca="false">CONCATENATE(C24," ",D24,",")</f>
+      <c r="E24" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>expr_check_pass varchar(1),</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="15" t="s">
+    <row r="25" spans="1:8">
+      <c r="C25" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="14" t="str">
-        <f aca="false">CONCATENATE(C25," ",D25,",")</f>
+      <c r="E25" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>all_check_pass varchar(1),</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="15" t="s">
+    <row r="26" spans="1:8">
+      <c r="C26" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
-      <c r="E28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="14" t="s">
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E29" s="14" t="str">
-        <f aca="false">CONCATENATE(C29," ",D29,",")</f>
+      <c r="E29" s="18" t="str">
+        <f t="shared" ref="E29:E48" si="2">CONCATENATE(C29," ",D29,",")</f>
         <v>datapoduuid varchar(50),</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="14" t="s">
+    <row r="30" spans="1:8">
+      <c r="C30" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E30" s="14" t="str">
-        <f aca="false">CONCATENATE(C30," ",D30,",")</f>
+      <c r="E30" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>datapodversion int(10),</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="14" t="s">
+    <row r="31" spans="1:8">
+      <c r="C31" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E31" s="14" t="str">
-        <f aca="false">CONCATENATE(C31," ",D31,",")</f>
+      <c r="E31" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>datapodname varchar(50),</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="14" t="s">
+    <row r="32" spans="1:8">
+      <c r="C32" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E32" s="14" t="str">
-        <f aca="false">CONCATENATE(C32," ",D32,",")</f>
+      <c r="E32" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>attributeid varchar(50),</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="14" t="s">
+    <row r="33" spans="3:5">
+      <c r="C33" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="14" t="str">
-        <f aca="false">CONCATENATE(C33," ",D33,",")</f>
+      <c r="E33" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>attributename varchar(50),</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="14" t="s">
+    <row r="34" spans="3:5">
+      <c r="C34" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="14" t="str">
-        <f aca="false">CONCATENATE(C34," ",D34,",")</f>
+      <c r="E34" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>numrows int(10),</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="14" t="s">
+    <row r="35" spans="3:5">
+      <c r="C35" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E35" s="14" t="str">
-        <f aca="false">CONCATENATE(C35," ",D35,",")</f>
+      <c r="E35" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>minval double,</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="14" t="s">
+    <row r="36" spans="3:5">
+      <c r="C36" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E36" s="14" t="str">
-        <f aca="false">CONCATENATE(C36," ",D36,",")</f>
+      <c r="E36" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>maxval double,</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="14" t="s">
+    <row r="37" spans="3:5">
+      <c r="C37" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E37" s="14" t="str">
-        <f aca="false">CONCATENATE(C37," ",D37,",")</f>
+      <c r="E37" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>avgval double,</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="14" t="s">
+    <row r="38" spans="3:5">
+      <c r="C38" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E38" s="14" t="str">
-        <f aca="false">CONCATENATE(C38," ",D38,",")</f>
+      <c r="E38" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>medianval double,</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="14" t="s">
+    <row r="39" spans="3:5">
+      <c r="C39" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E39" s="14" t="str">
-        <f aca="false">CONCATENATE(C39," ",D39,",")</f>
+      <c r="E39" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>stddev double,</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="14" t="s">
+    <row r="40" spans="3:5">
+      <c r="C40" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E40" s="14" t="str">
-        <f aca="false">CONCATENATE(C40," ",D40,",")</f>
+      <c r="E40" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>numdistinct double,</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="14" t="s">
+    <row r="41" spans="3:5">
+      <c r="C41" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E41" s="14" t="str">
-        <f aca="false">CONCATENATE(C41," ",D41,",")</f>
+      <c r="E41" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>perdistinct double,</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="14" t="s">
+    <row r="42" spans="3:5">
+      <c r="C42" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E42" s="14" t="str">
-        <f aca="false">CONCATENATE(C42," ",D42,",")</f>
+      <c r="E42" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>numnull double,</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="14" t="s">
+    <row r="43" spans="3:5">
+      <c r="C43" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E43" s="14" t="str">
-        <f aca="false">CONCATENATE(C43," ",D43,",")</f>
+      <c r="E43" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>pernull double,</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="14" t="s">
+    <row r="44" spans="3:5">
+      <c r="C44" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E44" s="14" t="str">
-        <f aca="false">CONCATENATE(C44," ",D44,",")</f>
+      <c r="E44" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>minlength double,</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="14" t="s">
+    <row r="45" spans="3:5">
+      <c r="C45" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E45" s="14" t="str">
-        <f aca="false">CONCATENATE(C45," ",D45,",")</f>
+      <c r="E45" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>maxlength double,</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="14" t="s">
+    <row r="46" spans="3:5">
+      <c r="C46" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E46" s="14" t="str">
-        <f aca="false">CONCATENATE(C46," ",D46,",")</f>
+      <c r="E46" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>avglength double,</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="14" t="s">
+    <row r="47" spans="3:5">
+      <c r="C47" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="14" t="str">
-        <f aca="false">CONCATENATE(C47," ",D47,",")</f>
+      <c r="E47" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>numduplicates int(10),</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="14" t="s">
+    <row r="48" spans="3:5">
+      <c r="C48" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="E48" s="14" t="str">
-        <f aca="false">CONCATENATE(C48," ",D48,",")</f>
+      <c r="E48" s="18" t="str">
+        <f t="shared" si="2"/>
         <v>version int(10),</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:P31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.837037037037"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.662962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.3333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.162962962963"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.1592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.5296296296296"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="3:16">
+      <c r="C5" t="s">
         <v>304</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J6" s="0" t="str">
-        <f aca="false">CONCATENATE(L6," ",M6)</f>
+    <row r="6" spans="3:16">
+      <c r="J6" t="str">
+        <f t="shared" ref="J6:J31" si="0">CONCATENATE(L6," ",M6)</f>
         <v>null_pass_count INT(10),</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" t="s">
         <v>306</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" t="s">
         <v>307</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" t="s">
         <v>308</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J7" s="0" t="str">
-        <f aca="false">CONCATENATE(L7," ",M7)</f>
-        <v> null_fail_count INT(10),</v>
-      </c>
-      <c r="L7" s="0" t="s">
+    <row r="7" spans="3:16">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>null_fail_count INT(10),</v>
+      </c>
+      <c r="L7" t="s">
         <v>310</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" t="s">
         <v>307</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" t="s">
         <v>311</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" t="s">
         <v>308</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="P7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J8" s="0" t="str">
-        <f aca="false">CONCATENATE(L8," ",M8)</f>
-        <v> value_pass_count       INT(10),</v>
-      </c>
-      <c r="L8" s="0" t="s">
+    <row r="8" spans="3:16">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>value_pass_count INT(10),</v>
+      </c>
+      <c r="L8" t="s">
         <v>312</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" t="s">
         <v>307</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" t="s">
         <v>311</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" t="s">
         <v>308</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="0" t="str">
-        <f aca="false">CONCATENATE(L9," ",M9)</f>
-        <v> value_fail_count       INT(10),</v>
-      </c>
-      <c r="L9" s="0" t="s">
+    <row r="9" spans="3:16">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>value_fail_count INT(10),</v>
+      </c>
+      <c r="L9" t="s">
         <v>313</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" t="s">
         <v>307</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" t="s">
         <v>311</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="O9" t="s">
         <v>308</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="P9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J10" s="0" t="str">
-        <f aca="false">CONCATENATE(L10," ",M10)</f>
-        <v> range_pass_count       INT(10),</v>
-      </c>
-      <c r="L10" s="0" t="s">
+    <row r="10" spans="3:16">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>range_pass_count INT(10),</v>
+      </c>
+      <c r="L10" t="s">
         <v>314</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" t="s">
         <v>307</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" t="s">
         <v>311</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="O10" t="s">
         <v>308</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="P10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G11" s="0" t="s">
+    <row r="11" spans="3:16">
+      <c r="G11" t="s">
         <v>315</v>
       </c>
-      <c r="J11" s="0" t="str">
-        <f aca="false">CONCATENATE(L11," ",M11)</f>
-        <v> range_fail_count       INT(10),</v>
-      </c>
-      <c r="L11" s="0" t="s">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>range_fail_count INT(10),</v>
+      </c>
+      <c r="L11" t="s">
         <v>316</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" t="s">
         <v>307</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" t="s">
         <v>311</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="O11" t="s">
         <v>308</v>
       </c>
-      <c r="P11" s="0" t="s">
+      <c r="P11" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="0" t="s">
+    <row r="12" spans="3:16">
+      <c r="G12" t="s">
         <v>317</v>
       </c>
-      <c r="J12" s="0" t="str">
-        <f aca="false">CONCATENATE(L12," ",M12)</f>
-        <v> datatype_pass_count    INT(10),</v>
-      </c>
-      <c r="L12" s="0" t="s">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>datatype_pass_count INT(10),</v>
+      </c>
+      <c r="L12" t="s">
         <v>318</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" t="s">
         <v>307</v>
       </c>
-      <c r="N12" s="0" t="s">
+      <c r="N12" t="s">
         <v>311</v>
       </c>
-      <c r="O12" s="0" t="s">
+      <c r="O12" t="s">
         <v>308</v>
       </c>
-      <c r="P12" s="0" t="s">
+      <c r="P12" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J13" s="0" t="str">
-        <f aca="false">CONCATENATE(L13," ",M13)</f>
-        <v> datatype_fail_count    INT(10),</v>
-      </c>
-      <c r="L13" s="0" t="s">
+    <row r="13" spans="3:16">
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>datatype_fail_count INT(10),</v>
+      </c>
+      <c r="L13" t="s">
         <v>319</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" t="s">
         <v>307</v>
       </c>
-      <c r="N13" s="0" t="s">
+      <c r="N13" t="s">
         <v>311</v>
       </c>
-      <c r="O13" s="0" t="s">
+      <c r="O13" t="s">
         <v>308</v>
       </c>
-      <c r="P13" s="0" t="s">
+      <c r="P13" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J14" s="0" t="str">
-        <f aca="false">CONCATENATE(L14," ",M14)</f>
-        <v> format_pass_count      INT(10),</v>
-      </c>
-      <c r="L14" s="0" t="s">
+    <row r="14" spans="3:16">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>format_pass_count INT(10),</v>
+      </c>
+      <c r="L14" t="s">
         <v>320</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" t="s">
         <v>307</v>
       </c>
-      <c r="N14" s="0" t="s">
+      <c r="N14" t="s">
         <v>311</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="O14" t="s">
         <v>308</v>
       </c>
-      <c r="P14" s="0" t="s">
+      <c r="P14" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="0" t="str">
-        <f aca="false">CONCATENATE(L15," ",M15)</f>
-        <v> format_fail_count      INT(10),</v>
-      </c>
-      <c r="L15" s="0" t="s">
+    <row r="15" spans="3:16">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>format_fail_count INT(10),</v>
+      </c>
+      <c r="L15" t="s">
         <v>321</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="M15" t="s">
         <v>307</v>
       </c>
-      <c r="N15" s="0" t="s">
+      <c r="N15" t="s">
         <v>311</v>
       </c>
-      <c r="O15" s="0" t="s">
+      <c r="O15" t="s">
         <v>308</v>
       </c>
-      <c r="P15" s="0" t="s">
+      <c r="P15" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J16" s="0" t="str">
-        <f aca="false">CONCATENATE(L16," ",M16)</f>
-        <v> length_pass_count      INT(10),</v>
-      </c>
-      <c r="L16" s="0" t="s">
+    <row r="16" spans="3:16">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>length_pass_count INT(10),</v>
+      </c>
+      <c r="L16" t="s">
         <v>322</v>
       </c>
-      <c r="M16" s="0" t="s">
+      <c r="M16" t="s">
         <v>307</v>
       </c>
-      <c r="N16" s="0" t="s">
+      <c r="N16" t="s">
         <v>311</v>
       </c>
-      <c r="O16" s="0" t="s">
+      <c r="O16" t="s">
         <v>308</v>
       </c>
-      <c r="P16" s="0" t="s">
+      <c r="P16" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:16">
+      <c r="B17" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>323</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>324</v>
       </c>
-      <c r="J17" s="0" t="str">
-        <f aca="false">CONCATENATE(L17," ",M17)</f>
-        <v> length_fail_count      INT(10),</v>
-      </c>
-      <c r="L17" s="0" t="s">
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>length_fail_count INT(10),</v>
+      </c>
+      <c r="L17" t="s">
         <v>325</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="M17" t="s">
         <v>307</v>
       </c>
-      <c r="N17" s="0" t="s">
+      <c r="N17" t="s">
         <v>311</v>
       </c>
-      <c r="O17" s="0" t="s">
+      <c r="O17" t="s">
         <v>308</v>
       </c>
-      <c r="P17" s="0" t="s">
+      <c r="P17" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0" t="str">
-        <f aca="false">CONCATENATE(L18," ",M18)</f>
-        <v> refint_pass_count      INT(10),</v>
-      </c>
-      <c r="L18" s="0" t="s">
+    <row r="18" spans="2:16">
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>refint_pass_count INT(10),</v>
+      </c>
+      <c r="L18" t="s">
         <v>326</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="M18" t="s">
         <v>307</v>
       </c>
-      <c r="N18" s="0" t="s">
+      <c r="N18" t="s">
         <v>311</v>
       </c>
-      <c r="O18" s="0" t="s">
+      <c r="O18" t="s">
         <v>308</v>
       </c>
-      <c r="P18" s="0" t="s">
+      <c r="P18" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J19" s="0" t="str">
-        <f aca="false">CONCATENATE(L19," ",M19)</f>
-        <v> refint_fail_count      INT(10),</v>
-      </c>
-      <c r="L19" s="0" t="s">
+    <row r="19" spans="2:16">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>refint_fail_count INT(10),</v>
+      </c>
+      <c r="L19" t="s">
         <v>327</v>
       </c>
-      <c r="M19" s="0" t="s">
+      <c r="M19" t="s">
         <v>307</v>
       </c>
-      <c r="N19" s="0" t="s">
+      <c r="N19" t="s">
         <v>311</v>
       </c>
-      <c r="O19" s="0" t="s">
+      <c r="O19" t="s">
         <v>308</v>
       </c>
-      <c r="P19" s="0" t="s">
+      <c r="P19" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J20" s="0" t="str">
-        <f aca="false">CONCATENATE(L20," ",M20)</f>
-        <v> dup_pass_count  INT(10),</v>
-      </c>
-      <c r="L20" s="0" t="s">
+    <row r="20" spans="2:16">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>dup_pass_count INT(10),</v>
+      </c>
+      <c r="L20" t="s">
         <v>328</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="M20" t="s">
         <v>307</v>
       </c>
-      <c r="N20" s="0" t="s">
+      <c r="N20" t="s">
         <v>311</v>
       </c>
-      <c r="O20" s="0" t="s">
+      <c r="O20" t="s">
         <v>308</v>
       </c>
-      <c r="P20" s="0" t="s">
+      <c r="P20" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J21" s="0" t="str">
-        <f aca="false">CONCATENATE(L21," ",M21)</f>
-        <v> dup_fail_count  INT(10),</v>
-      </c>
-      <c r="L21" s="0" t="s">
+    <row r="21" spans="2:16">
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>dup_fail_count INT(10),</v>
+      </c>
+      <c r="L21" t="s">
         <v>329</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="M21" t="s">
         <v>307</v>
       </c>
-      <c r="N21" s="0" t="s">
+      <c r="N21" t="s">
         <v>311</v>
       </c>
-      <c r="O21" s="0" t="s">
+      <c r="O21" t="s">
         <v>308</v>
       </c>
-      <c r="P21" s="0" t="s">
+      <c r="P21" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0" t="str">
-        <f aca="false">CONCATENATE(L22," ",M22)</f>
-        <v> custom_pass_count      INT(10),</v>
-      </c>
-      <c r="L22" s="0" t="s">
+    <row r="22" spans="2:16">
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>custom_pass_count INT(10),</v>
+      </c>
+      <c r="L22" t="s">
         <v>330</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="M22" t="s">
         <v>307</v>
       </c>
-      <c r="N22" s="0" t="s">
+      <c r="N22" t="s">
         <v>311</v>
       </c>
-      <c r="O22" s="0" t="s">
+      <c r="O22" t="s">
         <v>308</v>
       </c>
-      <c r="P22" s="0" t="s">
+      <c r="P22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="0" t="str">
-        <f aca="false">CONCATENATE(L23," ",M23)</f>
-        <v> custom_fail_count      INT(10),</v>
-      </c>
-      <c r="L23" s="0" t="s">
+    <row r="23" spans="2:16">
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>custom_fail_count INT(10),</v>
+      </c>
+      <c r="L23" t="s">
         <v>331</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="M23" t="s">
         <v>307</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="N23" t="s">
         <v>311</v>
       </c>
-      <c r="O23" s="0" t="s">
+      <c r="O23" t="s">
         <v>308</v>
       </c>
-      <c r="P23" s="0" t="s">
+      <c r="P23" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="0" t="str">
-        <f aca="false">CONCATENATE(L24," ",M24)</f>
-        <v> domain_pass_count      INT(10),</v>
-      </c>
-      <c r="L24" s="0" t="s">
+    <row r="24" spans="2:16">
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>domain_pass_count INT(10),</v>
+      </c>
+      <c r="L24" t="s">
         <v>332</v>
       </c>
-      <c r="M24" s="0" t="s">
+      <c r="M24" t="s">
         <v>307</v>
       </c>
-      <c r="N24" s="0" t="s">
+      <c r="N24" t="s">
         <v>311</v>
       </c>
-      <c r="O24" s="0" t="s">
+      <c r="O24" t="s">
         <v>308</v>
       </c>
-      <c r="P24" s="0" t="s">
+      <c r="P24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="0" t="str">
-        <f aca="false">CONCATENATE(L25," ",M25)</f>
-        <v> domain_fail_count      INT(10),</v>
-      </c>
-      <c r="L25" s="0" t="s">
+    <row r="25" spans="2:16">
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>domain_fail_count INT(10),</v>
+      </c>
+      <c r="L25" t="s">
         <v>333</v>
       </c>
-      <c r="M25" s="0" t="s">
+      <c r="M25" t="s">
         <v>307</v>
       </c>
-      <c r="N25" s="0" t="s">
+      <c r="N25" t="s">
         <v>311</v>
       </c>
-      <c r="O25" s="0" t="s">
+      <c r="O25" t="s">
         <v>308</v>
       </c>
-      <c r="P25" s="0" t="s">
+      <c r="P25" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="0" t="str">
-        <f aca="false">CONCATENATE(L26," ",M26)</f>
-        <v> blank_pass_count       INT(10),</v>
-      </c>
-      <c r="L26" s="0" t="s">
+    <row r="26" spans="2:16">
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>blank_pass_count INT(10),</v>
+      </c>
+      <c r="L26" t="s">
         <v>334</v>
       </c>
-      <c r="M26" s="0" t="s">
+      <c r="M26" t="s">
         <v>307</v>
       </c>
-      <c r="N26" s="0" t="s">
+      <c r="N26" t="s">
         <v>311</v>
       </c>
-      <c r="O26" s="0" t="s">
+      <c r="O26" t="s">
         <v>308</v>
       </c>
-      <c r="P26" s="0" t="s">
+      <c r="P26" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="0" t="str">
-        <f aca="false">CONCATENATE(L27," ",M27)</f>
-        <v> blank_fail_count       INT(10),</v>
-      </c>
-      <c r="L27" s="0" t="s">
+    <row r="27" spans="2:16">
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>blank_fail_count INT(10),</v>
+      </c>
+      <c r="L27" t="s">
         <v>335</v>
       </c>
-      <c r="M27" s="0" t="s">
+      <c r="M27" t="s">
         <v>307</v>
       </c>
-      <c r="N27" s="0" t="s">
+      <c r="N27" t="s">
         <v>311</v>
       </c>
-      <c r="O27" s="0" t="s">
+      <c r="O27" t="s">
         <v>308</v>
       </c>
-      <c r="P27" s="0" t="s">
+      <c r="P27" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="0" t="str">
-        <f aca="false">CONCATENATE(L28," ",M28)</f>
-        <v> expression_pass_count  INT(10),</v>
-      </c>
-      <c r="L28" s="0" t="s">
+    <row r="28" spans="2:16">
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>expression_pass_count INT(10),</v>
+      </c>
+      <c r="L28" t="s">
         <v>336</v>
       </c>
-      <c r="M28" s="0" t="s">
+      <c r="M28" t="s">
         <v>307</v>
       </c>
-      <c r="N28" s="0" t="s">
+      <c r="N28" t="s">
         <v>311</v>
       </c>
-      <c r="O28" s="0" t="s">
+      <c r="O28" t="s">
         <v>308</v>
       </c>
-      <c r="P28" s="0" t="s">
+      <c r="P28" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="0" t="str">
-        <f aca="false">CONCATENATE(L29," ",M29)</f>
-        <v> expression_fail_count  INT(10),</v>
-      </c>
-      <c r="L29" s="0" t="s">
+    <row r="29" spans="2:16">
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>expression_fail_count INT(10),</v>
+      </c>
+      <c r="L29" t="s">
         <v>337</v>
       </c>
-      <c r="M29" s="0" t="s">
+      <c r="M29" t="s">
         <v>307</v>
       </c>
-      <c r="N29" s="0" t="s">
+      <c r="N29" t="s">
         <v>311</v>
       </c>
-      <c r="O29" s="0" t="s">
+      <c r="O29" t="s">
         <v>308</v>
       </c>
-      <c r="P29" s="0" t="s">
+      <c r="P29" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="0" t="str">
-        <f aca="false">CONCATENATE(L30," ",M30)</f>
-        <v> case_pass_count INT(10),</v>
-      </c>
-      <c r="L30" s="0" t="s">
+    <row r="30" spans="2:16">
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>case_pass_count INT(10),</v>
+      </c>
+      <c r="L30" t="s">
         <v>338</v>
       </c>
-      <c r="M30" s="0" t="s">
+      <c r="M30" t="s">
         <v>307</v>
       </c>
-      <c r="N30" s="0" t="s">
+      <c r="N30" t="s">
         <v>311</v>
       </c>
-      <c r="O30" s="0" t="s">
+      <c r="O30" t="s">
         <v>308</v>
       </c>
-      <c r="P30" s="0" t="s">
+      <c r="P30" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J31" s="0" t="str">
-        <f aca="false">CONCATENATE(L31," ",M31)</f>
-        <v> case_fail_count INT(10),</v>
-      </c>
-      <c r="L31" s="0" t="s">
+    <row r="31" spans="2:16">
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>case_fail_count INT(10),</v>
+      </c>
+      <c r="L31" t="s">
         <v>339</v>
       </c>
-      <c r="M31" s="0" t="s">
+      <c r="M31" t="s">
         <v>307</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L79" activeCellId="0" sqref="L79"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="R45" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.27777777777778"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.4185185185185"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2962962962963"/>
-    <col collapsed="false" hidden="false" max="26" min="6" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="21.7407407407407"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="30.0333333333333"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="23.3111111111111"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="27.5703703703704"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="26.2222222222222"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="27.5703703703704"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="29.9222222222222"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="29.5814814814815"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="12.3259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="36" style="0" width="10.5296296296296"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="39" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="41" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="41" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="47.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="47.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0" t="n">
+    <row r="1" spans="1:58">
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="n">
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="G1">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="n">
+      <c r="I1">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="n">
+      <c r="J1">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="n">
+      <c r="K1">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="n">
+      <c r="L1">
         <v>10</v>
       </c>
-      <c r="M1" s="0" t="n">
+      <c r="M1">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="n">
+      <c r="N1">
         <v>12</v>
       </c>
-      <c r="O1" s="0" t="n">
+      <c r="O1">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="n">
+      <c r="P1">
         <v>14</v>
       </c>
-      <c r="Q1" s="0" t="n">
+      <c r="Q1">
         <v>15</v>
       </c>
-      <c r="R1" s="0" t="n">
+      <c r="R1">
         <v>16</v>
       </c>
-      <c r="S1" s="0" t="n">
+      <c r="S1">
         <v>17</v>
       </c>
-      <c r="T1" s="0" t="n">
+      <c r="T1">
         <v>18</v>
       </c>
-      <c r="U1" s="0" t="n">
+      <c r="U1">
         <v>19</v>
       </c>
-      <c r="V1" s="0" t="n">
+      <c r="V1">
         <v>20</v>
       </c>
-      <c r="W1" s="0" t="n">
+      <c r="W1">
         <v>21</v>
       </c>
-      <c r="X1" s="0" t="n">
+      <c r="X1">
         <v>22</v>
       </c>
-      <c r="Y1" s="0" t="n">
+      <c r="Y1">
         <v>23</v>
       </c>
-      <c r="Z1" s="0" t="n">
+      <c r="Z1">
         <v>24</v>
       </c>
-      <c r="AA1" s="0" t="n">
+      <c r="AA1">
         <v>25</v>
       </c>
-      <c r="AB1" s="0" t="n">
+      <c r="AB1">
         <v>26</v>
       </c>
-      <c r="AC1" s="0" t="n">
+      <c r="AC1">
         <v>27</v>
       </c>
-      <c r="AD1" s="0" t="n">
+      <c r="AD1">
         <v>28</v>
       </c>
-      <c r="AE1" s="0" t="n">
+      <c r="AE1">
         <v>29</v>
       </c>
-      <c r="AF1" s="0" t="n">
+      <c r="AF1">
         <v>30</v>
       </c>
-      <c r="AG1" s="0" t="n">
+      <c r="AG1">
         <v>31</v>
       </c>
-      <c r="AH1" s="0" t="n">
+      <c r="AH1">
         <v>32</v>
       </c>
-      <c r="AI1" s="0" t="n">
+      <c r="AI1">
         <v>33</v>
       </c>
-      <c r="AJ1" s="0" t="n">
+      <c r="AJ1">
         <v>34</v>
       </c>
-      <c r="AK1" s="0" t="n">
+      <c r="AK1">
         <v>35</v>
       </c>
-      <c r="AL1" s="0" t="n">
+      <c r="AL1">
         <v>36</v>
       </c>
-      <c r="AM1" s="0" t="n">
+      <c r="AM1">
         <v>37</v>
       </c>
-      <c r="AN1" s="0" t="n">
+      <c r="AN1">
         <v>38</v>
       </c>
-      <c r="AO1" s="0" t="n">
+      <c r="AO1">
         <v>39</v>
       </c>
-      <c r="AP1" s="0" t="n">
+      <c r="AP1">
         <v>40</v>
       </c>
-      <c r="AQ1" s="0" t="n">
+      <c r="AQ1">
         <v>41</v>
       </c>
-      <c r="AR1" s="0" t="n">
+      <c r="AR1">
         <v>42</v>
       </c>
-      <c r="AS1" s="0" t="n">
+      <c r="AS1">
         <v>43</v>
       </c>
-      <c r="AT1" s="0" t="n">
+      <c r="AT1">
         <v>44</v>
       </c>
-      <c r="AU1" s="0" t="n">
+      <c r="AU1">
         <v>45</v>
       </c>
-      <c r="AV1" s="0" t="n">
+      <c r="AV1">
         <v>46</v>
       </c>
-      <c r="AW1" s="0" t="n">
+      <c r="AW1">
         <v>47</v>
       </c>
-      <c r="AX1" s="0" t="n">
+      <c r="AX1">
         <v>48</v>
       </c>
-      <c r="AY1" s="0" t="n">
+      <c r="AY1">
         <v>49</v>
       </c>
-      <c r="AZ1" s="0" t="n">
+      <c r="AZ1">
         <v>50</v>
       </c>
-      <c r="BA1" s="0" t="n">
+      <c r="BA1">
         <v>51</v>
       </c>
-      <c r="BB1" s="0" t="n">
+      <c r="BB1">
         <v>52</v>
       </c>
-      <c r="BC1" s="0" t="n">
+      <c r="BC1">
         <v>53</v>
       </c>
-      <c r="BD1" s="0" t="n">
+      <c r="BD1">
         <v>54</v>
       </c>
-      <c r="BE1" s="0" t="n">
+      <c r="BE1">
         <v>55</v>
       </c>
-      <c r="BF1" s="0" t="n">
+      <c r="BF1">
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="16" t="s">
+    <row r="2" spans="1:58" ht="20">
+      <c r="C2" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19" t="s">
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="18" t="s">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="19" t="s">
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="18" t="s">
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="19" t="s">
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="18" t="s">
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="19" t="s">
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="18" t="s">
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="19" t="s">
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+    </row>
+    <row r="3" spans="1:58">
       <c r="B3" s="20" t="s">
         <v>352</v>
       </c>
@@ -4597,7 +4813,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:58">
       <c r="A4" s="24" t="s">
         <v>177</v>
       </c>
@@ -4658,7 +4874,7 @@
       <c r="BE4" s="22"/>
       <c r="BF4" s="22"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:58">
       <c r="A5" s="25" t="s">
         <v>180</v>
       </c>
@@ -4719,7 +4935,7 @@
       <c r="BE5" s="22"/>
       <c r="BF5" s="22"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:58">
       <c r="A6" s="25" t="s">
         <v>181</v>
       </c>
@@ -4780,7 +4996,7 @@
       <c r="BE6" s="22"/>
       <c r="BF6" s="22"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:58">
       <c r="A7" s="25" t="s">
         <v>184</v>
       </c>
@@ -4841,7 +5057,7 @@
       <c r="BE7" s="22"/>
       <c r="BF7" s="22"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:58">
       <c r="A8" s="25" t="s">
         <v>186</v>
       </c>
@@ -4902,7 +5118,7 @@
       <c r="BE8" s="22"/>
       <c r="BF8" s="22"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:58">
       <c r="A9" s="25" t="s">
         <v>121</v>
       </c>
@@ -4969,7 +5185,7 @@
       <c r="BE9" s="22"/>
       <c r="BF9" s="22"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:58">
       <c r="A10" s="25" t="s">
         <v>122</v>
       </c>
@@ -5034,7 +5250,7 @@
       <c r="BE10" s="22"/>
       <c r="BF10" s="22"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:58">
       <c r="A11" s="25" t="s">
         <v>123</v>
       </c>
@@ -5107,7 +5323,7 @@
       <c r="BE11" s="22"/>
       <c r="BF11" s="22"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:58">
       <c r="A12" s="25" t="s">
         <v>124</v>
       </c>
@@ -5180,7 +5396,7 @@
       <c r="BE12" s="22"/>
       <c r="BF12" s="22"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:58">
       <c r="A13" s="25" t="s">
         <v>125</v>
       </c>
@@ -5245,7 +5461,7 @@
       <c r="BE13" s="22"/>
       <c r="BF13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:58">
       <c r="A14" s="25" t="s">
         <v>126</v>
       </c>
@@ -5310,7 +5526,7 @@
       <c r="BE14" s="22"/>
       <c r="BF14" s="22"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:58">
       <c r="A15" s="25" t="s">
         <v>127</v>
       </c>
@@ -5381,7 +5597,7 @@
       <c r="BE15" s="22"/>
       <c r="BF15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:58">
       <c r="A16" s="25" t="s">
         <v>128</v>
       </c>
@@ -5452,7 +5668,7 @@
       <c r="BE16" s="22"/>
       <c r="BF16" s="22"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:58">
       <c r="A17" s="25" t="s">
         <v>129</v>
       </c>
@@ -5517,7 +5733,7 @@
       <c r="BE17" s="22"/>
       <c r="BF17" s="22"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:58">
       <c r="A18" s="25" t="s">
         <v>130</v>
       </c>
@@ -5584,7 +5800,7 @@
       <c r="BE18" s="22"/>
       <c r="BF18" s="22"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:58">
       <c r="A19" s="25" t="s">
         <v>131</v>
       </c>
@@ -5649,7 +5865,7 @@
       <c r="BE19" s="22"/>
       <c r="BF19" s="22"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:58">
       <c r="A20" s="25" t="s">
         <v>132</v>
       </c>
@@ -5714,7 +5930,7 @@
       <c r="BE20" s="22"/>
       <c r="BF20" s="22"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:58">
       <c r="A21" s="25" t="s">
         <v>133</v>
       </c>
@@ -5779,7 +5995,7 @@
       <c r="BE21" s="22"/>
       <c r="BF21" s="22"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:58">
       <c r="A22" s="25" t="s">
         <v>134</v>
       </c>
@@ -5845,7 +6061,7 @@
       <c r="BE22" s="22"/>
       <c r="BF22" s="22"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:58">
       <c r="A23" s="25" t="s">
         <v>135</v>
       </c>
@@ -5906,7 +6122,7 @@
       <c r="BE23" s="22"/>
       <c r="BF23" s="22"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:58">
       <c r="A24" s="25" t="s">
         <v>136</v>
       </c>
@@ -5967,7 +6183,7 @@
       <c r="BE24" s="22"/>
       <c r="BF24" s="22"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:58">
       <c r="A25" s="25" t="s">
         <v>137</v>
       </c>
@@ -6033,7 +6249,7 @@
       <c r="BE25" s="22"/>
       <c r="BF25" s="22"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:58">
       <c r="A26" s="25" t="s">
         <v>138</v>
       </c>
@@ -6098,7 +6314,7 @@
       <c r="BE26" s="22"/>
       <c r="BF26" s="22"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:58">
       <c r="A27" s="25" t="s">
         <v>139</v>
       </c>
@@ -6159,7 +6375,7 @@
       <c r="BE27" s="22"/>
       <c r="BF27" s="22"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:58">
       <c r="A28" s="25" t="s">
         <v>140</v>
       </c>
@@ -6220,7 +6436,7 @@
       <c r="BE28" s="22"/>
       <c r="BF28" s="22"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:58">
       <c r="A29" s="25" t="s">
         <v>141</v>
       </c>
@@ -6281,7 +6497,7 @@
       <c r="BE29" s="22"/>
       <c r="BF29" s="22"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:58">
       <c r="A30" s="25" t="s">
         <v>142</v>
       </c>
@@ -6342,7 +6558,7 @@
       <c r="BE30" s="22"/>
       <c r="BF30" s="22"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:58">
       <c r="A31" s="25" t="s">
         <v>143</v>
       </c>
@@ -6403,7 +6619,7 @@
       <c r="BE31" s="22"/>
       <c r="BF31" s="22"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:58">
       <c r="A32" s="25" t="s">
         <v>144</v>
       </c>
@@ -6464,7 +6680,7 @@
       <c r="BE32" s="22"/>
       <c r="BF32" s="22"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:58">
       <c r="A33" s="25" t="s">
         <v>145</v>
       </c>
@@ -6525,7 +6741,7 @@
       <c r="BE33" s="22"/>
       <c r="BF33" s="22"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:58">
       <c r="A34" s="25" t="s">
         <v>146</v>
       </c>
@@ -6586,7 +6802,7 @@
       <c r="BE34" s="22"/>
       <c r="BF34" s="22"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:58">
       <c r="A35" s="25" t="s">
         <v>147</v>
       </c>
@@ -6647,7 +6863,7 @@
       <c r="BE35" s="22"/>
       <c r="BF35" s="22"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:58">
       <c r="A36" s="25" t="s">
         <v>148</v>
       </c>
@@ -6708,7 +6924,7 @@
       <c r="BE36" s="22"/>
       <c r="BF36" s="22"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:58">
       <c r="A37" s="25" t="s">
         <v>149</v>
       </c>
@@ -6769,7 +6985,7 @@
       <c r="BE37" s="22"/>
       <c r="BF37" s="22"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:58">
       <c r="A38" s="25" t="s">
         <v>150</v>
       </c>
@@ -6830,7 +7046,7 @@
       <c r="BE38" s="22"/>
       <c r="BF38" s="22"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:58">
       <c r="A39" s="25" t="s">
         <v>151</v>
       </c>
@@ -6891,7 +7107,7 @@
       <c r="BE39" s="22"/>
       <c r="BF39" s="22"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:58">
       <c r="A40" s="25" t="s">
         <v>152</v>
       </c>
@@ -6952,7 +7168,7 @@
       <c r="BE40" s="22"/>
       <c r="BF40" s="22"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:58">
       <c r="A41" s="25" t="s">
         <v>153</v>
       </c>
@@ -7013,7 +7229,7 @@
       <c r="BE41" s="22"/>
       <c r="BF41" s="22"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:58">
       <c r="A42" s="25" t="s">
         <v>154</v>
       </c>
@@ -7074,7 +7290,7 @@
       <c r="BE42" s="22"/>
       <c r="BF42" s="22"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:58">
       <c r="A43" s="25" t="s">
         <v>155</v>
       </c>
@@ -7135,7 +7351,7 @@
       <c r="BE43" s="22"/>
       <c r="BF43" s="22"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:58">
       <c r="A44" s="25" t="s">
         <v>156</v>
       </c>
@@ -7196,7 +7412,7 @@
       <c r="BE44" s="22"/>
       <c r="BF44" s="22"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:58">
       <c r="A45" s="25" t="s">
         <v>157</v>
       </c>
@@ -7257,7 +7473,7 @@
       <c r="BE45" s="22"/>
       <c r="BF45" s="22"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:58">
       <c r="A46" s="25" t="s">
         <v>158</v>
       </c>
@@ -7318,7 +7534,7 @@
       <c r="BE46" s="22"/>
       <c r="BF46" s="22"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:58">
       <c r="A47" s="25" t="s">
         <v>159</v>
       </c>
@@ -7379,7 +7595,7 @@
       <c r="BE47" s="22"/>
       <c r="BF47" s="22"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:58">
       <c r="A48" s="25" t="s">
         <v>160</v>
       </c>
@@ -7440,7 +7656,7 @@
       <c r="BE48" s="22"/>
       <c r="BF48" s="22"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:58">
       <c r="A49" s="25" t="s">
         <v>161</v>
       </c>
@@ -7501,7 +7717,7 @@
       <c r="BE49" s="22"/>
       <c r="BF49" s="22"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:58">
       <c r="A50" s="25" t="s">
         <v>162</v>
       </c>
@@ -7562,7 +7778,7 @@
       <c r="BE50" s="22"/>
       <c r="BF50" s="22"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:58">
       <c r="A51" s="25" t="s">
         <v>163</v>
       </c>
@@ -7623,7 +7839,7 @@
       <c r="BE51" s="22"/>
       <c r="BF51" s="22"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:58">
       <c r="A52" s="25" t="s">
         <v>164</v>
       </c>
@@ -7644,7 +7860,7 @@
       <c r="Q52" s="21"/>
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
+      <c r="T52" s="33"/>
       <c r="U52" s="22"/>
       <c r="V52" s="22"/>
       <c r="W52" s="22"/>
@@ -7684,7 +7900,7 @@
       <c r="BE52" s="22"/>
       <c r="BF52" s="22"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:58">
       <c r="A53" s="25" t="s">
         <v>165</v>
       </c>
@@ -7745,7 +7961,7 @@
       <c r="BE53" s="22"/>
       <c r="BF53" s="22"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:58">
       <c r="A54" s="25" t="s">
         <v>166</v>
       </c>
@@ -7806,7 +8022,7 @@
       <c r="BE54" s="22"/>
       <c r="BF54" s="22"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:58">
       <c r="A55" s="25" t="s">
         <v>167</v>
       </c>
@@ -7867,7 +8083,7 @@
       <c r="BE55" s="22"/>
       <c r="BF55" s="22"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:58">
       <c r="A56" s="25" t="s">
         <v>168</v>
       </c>
@@ -7928,7 +8144,7 @@
       <c r="BE56" s="22"/>
       <c r="BF56" s="22"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:58">
       <c r="A57" s="25" t="s">
         <v>169</v>
       </c>
@@ -7949,7 +8165,7 @@
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
       <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
+      <c r="T57" s="33"/>
       <c r="U57" s="22"/>
       <c r="V57" s="22"/>
       <c r="W57" s="22"/>
@@ -7989,7 +8205,7 @@
       <c r="BE57" s="22"/>
       <c r="BF57" s="22"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:58">
       <c r="A58" s="25" t="s">
         <v>170</v>
       </c>
@@ -8050,7 +8266,7 @@
       <c r="BE58" s="22"/>
       <c r="BF58" s="22"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:58">
       <c r="A59" s="25" t="s">
         <v>410</v>
       </c>
@@ -8115,7 +8331,7 @@
       <c r="BE59" s="22"/>
       <c r="BF59" s="22"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:58">
       <c r="A60" s="25" t="s">
         <v>411</v>
       </c>
@@ -8180,7 +8396,7 @@
       <c r="BE60" s="22"/>
       <c r="BF60" s="22"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:58">
       <c r="A61" s="31"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
@@ -8239,1398 +8455,1329 @@
       <c r="BE61" s="22"/>
       <c r="BF61" s="22"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:58">
       <c r="AC62" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AO2:AT2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="O2:T2"/>
     <mergeCell ref="U2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="AO2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5296296296296"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="J5" s="0" t="s">
+    <row r="3" spans="2:10">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="J5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="2:10">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="J7" s="0" t="s">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="J7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="J8" s="0" t="s">
+    <row r="8" spans="2:10">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="J8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="J9" s="0" t="s">
+    <row r="9" spans="2:10">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="J9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="J10" s="0" t="s">
+    <row r="10" spans="2:10">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="J10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5" t="s">
+    <row r="11" spans="2:10">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5" t="s">
+      <c r="D12" s="10"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="E24" s="5" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="E24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5296296296296"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5296296296296"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5296296296296"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5296296296296"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5296296296296"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.5296296296296"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:S56"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J64" activeCellId="0" sqref="J64"/>
+    <sheetView topLeftCell="C34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6592592592593"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6666666666667"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.4962962962963"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="10.5296296296296"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.8296296296296"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.3333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.5296296296296"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+    <row r="6" spans="1:19">
+      <c r="C6" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" t="s">
         <v>69</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="Q8" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="R8" t="s">
         <v>68</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="S8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="14">
         <v>43466</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>2</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>300</v>
       </c>
-      <c r="L9" s="10" t="n">
+      <c r="L9" s="14">
         <v>43466</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="Q9">
         <v>100</v>
       </c>
-      <c r="R9" s="10" t="n">
+      <c r="R9" s="14">
         <v>43466</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="S9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>200</v>
       </c>
-      <c r="G10" s="10" t="n">
+      <c r="G10" s="14">
         <v>43466</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>700</v>
       </c>
-      <c r="L10" s="10" t="n">
+      <c r="L10" s="14">
         <v>43466</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="O10">
         <v>2</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q10">
         <v>200</v>
       </c>
-      <c r="R10" s="10" t="n">
+      <c r="R10" s="14">
         <v>43466</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="S10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>300</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="14">
         <v>43466</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11">
         <v>300</v>
       </c>
-      <c r="L11" s="10" t="n">
+      <c r="L11" s="14">
         <v>43497</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="N11">
         <v>2</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11">
         <v>1</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="Q11">
         <v>300</v>
       </c>
-      <c r="R11" s="10" t="n">
+      <c r="R11" s="14">
         <v>43466</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="S11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>400</v>
       </c>
-      <c r="G12" s="10" t="n">
+      <c r="G12" s="14">
         <v>43466</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>2</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>700</v>
       </c>
-      <c r="L12" s="10" t="n">
+      <c r="L12" s="14">
         <v>43497</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" t="s">
         <v>76</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12">
         <v>2</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12">
         <v>1</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="Q12">
         <v>400</v>
       </c>
-      <c r="R12" s="10" t="n">
+      <c r="R12" s="14">
         <v>43466</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="S12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>100</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="14">
         <v>43497</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13">
         <v>1</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="Q13">
         <v>100</v>
       </c>
-      <c r="R13" s="10" t="n">
+      <c r="R13" s="14">
         <v>43497</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="S13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>200</v>
       </c>
-      <c r="G14" s="10" t="n">
+      <c r="G14" s="14">
         <v>43497</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14">
         <v>2</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14">
         <v>1</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="Q14">
         <v>200</v>
       </c>
-      <c r="R14" s="10" t="n">
+      <c r="R14" s="14">
         <v>43497</v>
       </c>
-      <c r="S14" s="0" t="s">
+      <c r="S14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>7</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>300</v>
       </c>
-      <c r="G15" s="10" t="n">
+      <c r="G15" s="14">
         <v>43497</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15">
         <v>1</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15">
         <v>1</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="Q15">
         <v>300</v>
       </c>
-      <c r="R15" s="10" t="n">
+      <c r="R15" s="14">
         <v>43497</v>
       </c>
-      <c r="S15" s="0" t="s">
+      <c r="S15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>8</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>400</v>
       </c>
-      <c r="G16" s="10" t="n">
+      <c r="G16" s="14">
         <v>43497</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="N16">
         <v>2</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="O16">
         <v>2</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16">
         <v>1</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="Q16">
         <v>400</v>
       </c>
-      <c r="R16" s="10" t="n">
+      <c r="R16" s="14">
         <v>43497</v>
       </c>
-      <c r="S16" s="0" t="s">
+      <c r="S16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K20" s="0" t="n">
+    <row r="20" spans="3:15">
+      <c r="K20">
         <v>1</v>
       </c>
-      <c r="M20" s="0" t="s">
+      <c r="M20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" spans="3:15">
+      <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="M21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="0" t="s">
+    <row r="22" spans="3:15">
+      <c r="E22" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>400</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="M22" s="0" t="s">
+      <c r="M22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="0" t="s">
+    <row r="23" spans="3:15">
+      <c r="E23" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23">
         <v>4</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="M23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="3:15">
+      <c r="C26" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="0" t="s">
+    <row r="27" spans="3:15">
+      <c r="E27" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27">
         <v>200</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="0" t="s">
+    <row r="28" spans="3:15">
+      <c r="E28" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28">
         <v>1</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28">
         <v>1</v>
       </c>
-      <c r="M28" s="0" t="s">
+      <c r="M28" t="s">
         <v>85</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="N28">
         <v>2</v>
       </c>
-      <c r="O28" s="0" t="s">
+      <c r="O28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L29" s="0" t="n">
+    <row r="29" spans="3:15">
+      <c r="L29">
         <v>2</v>
       </c>
-      <c r="M29" s="0" t="s">
+      <c r="M29" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29">
         <v>4</v>
       </c>
-      <c r="O29" s="0" t="s">
+      <c r="O29" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L30" s="0" t="n">
+    <row r="30" spans="3:15">
+      <c r="L30">
         <v>3</v>
       </c>
-      <c r="M30" s="0" t="s">
+      <c r="M30" t="s">
         <v>89</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="N30">
         <v>4</v>
       </c>
-      <c r="O30" s="0" t="s">
+      <c r="O30" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I32" s="0" t="s">
+    <row r="32" spans="3:15">
+      <c r="I32" t="s">
         <v>65</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" t="s">
         <v>69</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="K32" t="s">
         <v>70</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="L32" t="s">
         <v>68</v>
       </c>
-      <c r="M32" s="0" t="s">
+      <c r="M32" t="s">
         <v>71</v>
       </c>
-      <c r="N32" s="0" t="s">
+      <c r="N32" t="s">
         <v>91</v>
       </c>
-      <c r="O32" s="0" t="s">
+      <c r="O32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="0" t="n">
+    <row r="33" spans="3:15">
+      <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33">
         <v>2</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33">
         <v>300</v>
       </c>
-      <c r="L33" s="10" t="n">
+      <c r="L33" s="14">
         <v>43466</v>
       </c>
-      <c r="M33" s="0" t="s">
+      <c r="M33" t="s">
         <v>75</v>
       </c>
-      <c r="N33" s="0" t="s">
+      <c r="N33" t="s">
         <v>75</v>
       </c>
-      <c r="O33" s="0" t="s">
+      <c r="O33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="0" t="n">
+    <row r="34" spans="3:15">
+      <c r="I34">
         <v>2</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34">
         <v>2</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34">
         <v>700</v>
       </c>
-      <c r="L34" s="10" t="n">
+      <c r="L34" s="14">
         <v>43466</v>
       </c>
-      <c r="M34" s="0" t="s">
+      <c r="M34" t="s">
         <v>76</v>
       </c>
-      <c r="N34" s="0" t="s">
+      <c r="N34" t="s">
         <v>75</v>
       </c>
-      <c r="O34" s="0" t="s">
+      <c r="O34" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="0" t="n">
+    <row r="35" spans="3:15">
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35">
         <v>2</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35">
         <v>300</v>
       </c>
-      <c r="L35" s="10" t="n">
+      <c r="L35" s="14">
         <v>43497</v>
       </c>
-      <c r="M35" s="0" t="s">
+      <c r="M35" t="s">
         <v>75</v>
       </c>
-      <c r="N35" s="0" t="s">
+      <c r="N35" t="s">
         <v>75</v>
       </c>
-      <c r="O35" s="0" t="s">
+      <c r="O35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="0" t="n">
+    <row r="36" spans="3:15">
+      <c r="I36">
         <v>2</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36">
         <v>2</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36">
         <v>700</v>
       </c>
-      <c r="L36" s="10" t="n">
+      <c r="L36" s="14">
         <v>43497</v>
       </c>
-      <c r="M36" s="0" t="s">
+      <c r="M36" t="s">
         <v>76</v>
       </c>
-      <c r="N36" s="0" t="s">
+      <c r="N36" t="s">
         <v>75</v>
       </c>
-      <c r="O36" s="0" t="s">
+      <c r="O36" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
+    <row r="38" spans="3:15">
+      <c r="C38" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" t="s">
         <v>96</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" t="s">
         <v>97</v>
       </c>
-      <c r="J38" s="0" t="s">
+      <c r="J38" t="s">
         <v>98</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38">
         <v>1455678</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
+    <row r="39" spans="3:15">
+      <c r="C39" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39">
         <v>2</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" t="s">
         <v>96</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" t="s">
         <v>97</v>
       </c>
-      <c r="J39" s="0" t="s">
+      <c r="J39" t="s">
         <v>101</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39">
         <v>1455679</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
+    <row r="40" spans="3:15">
+      <c r="C40" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40">
         <v>3</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>104</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" t="s">
         <v>96</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" t="s">
         <v>97</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K40" s="11" t="n">
+      <c r="K40" s="15">
         <v>1455680</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J46" s="0" t="s">
+    <row r="46" spans="3:15">
+      <c r="J46" t="s">
         <v>106</v>
       </c>
-      <c r="K46" s="0" t="s">
+      <c r="K46" t="s">
         <v>107</v>
       </c>
-      <c r="L46" s="0" t="s">
+      <c r="L46" t="s">
         <v>63</v>
       </c>
-      <c r="M46" s="0" t="s">
+      <c r="M46" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J47" s="0" t="s">
+    <row r="47" spans="3:15">
+      <c r="J47" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="0" t="s">
+      <c r="K47" t="s">
         <v>73</v>
       </c>
-      <c r="L47" s="0" t="s">
+      <c r="L47" t="s">
         <v>74</v>
       </c>
-      <c r="M47" s="0" t="s">
+      <c r="M47" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J48" s="0" t="s">
+    <row r="48" spans="3:15">
+      <c r="J48" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="0" t="s">
+      <c r="K48" t="s">
         <v>110</v>
       </c>
-      <c r="L48" s="0" t="s">
+      <c r="L48" t="s">
         <v>111</v>
       </c>
-      <c r="M48" s="0" t="s">
+      <c r="M48" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G49" s="0" t="s">
+    <row r="49" spans="6:14">
+      <c r="G49" t="s">
         <v>113</v>
       </c>
-      <c r="L49" s="0" t="s">
+      <c r="L49" t="s">
         <v>114</v>
       </c>
-      <c r="M49" s="0" t="s">
+      <c r="M49" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="0" t="s">
+    <row r="50" spans="6:14">
+      <c r="F50" t="s">
         <v>4</v>
       </c>
-      <c r="M50" s="0" t="s">
+      <c r="M50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="0" t="s">
+    <row r="51" spans="6:14">
+      <c r="G51" t="s">
         <v>117</v>
       </c>
-      <c r="M51" s="0" t="s">
+      <c r="M51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M52" s="0" t="s">
+    <row r="52" spans="6:14">
+      <c r="M52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="0" t="s">
+    <row r="53" spans="6:14">
+      <c r="F53" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J54" s="0" t="n">
+    <row r="54" spans="6:14">
+      <c r="J54">
         <v>2</v>
       </c>
-      <c r="K54" s="0" t="n">
+      <c r="K54">
         <v>2</v>
       </c>
-      <c r="L54" s="0" t="n">
+      <c r="L54">
         <v>3</v>
       </c>
-      <c r="M54" s="0" t="n">
+      <c r="M54">
         <v>6</v>
       </c>
-      <c r="N54" s="0" t="n">
+      <c r="N54">
         <v>72</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M56" s="0" t="s">
+    <row r="56" spans="6:14">
+      <c r="M56" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/framework-web/app/aml/doc/AML.xlsx
+++ b/framework-web/app/aml/doc/AML.xlsx
@@ -1,41 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" tabRatio="878" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="878" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Customer 360" sheetId="2" r:id="rId2"/>
-    <sheet name="Account 360" sheetId="3" r:id="rId3"/>
-    <sheet name="AML Monitoring Summary" sheetId="4" r:id="rId4"/>
-    <sheet name="AML Investigation Cockpit" sheetId="5" r:id="rId5"/>
-    <sheet name="Rule Assessment" sheetId="6" r:id="rId6"/>
-    <sheet name="Model Assessment" sheetId="7" r:id="rId7"/>
-    <sheet name="Data Assessment" sheetId="8" r:id="rId8"/>
-    <sheet name="Business Rules" sheetId="9" r:id="rId9"/>
-    <sheet name="Features" sheetId="10" r:id="rId10"/>
-    <sheet name="Data Model" sheetId="11" r:id="rId11"/>
-    <sheet name="DDL" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet7" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
+    <sheet name="Main" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Customer 360" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Account 360" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="AML Monitoring Summary" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="AML Investigation Cockpit" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Rule Assessment" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Model Assessment" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Data Assessment" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Business Rules" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Features" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Data Model" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="DDL" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sheet7" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sheet1!$A$1:$A$62</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$A$62</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="411">
   <si>
     <t>Reports</t>
   </si>
@@ -961,9 +957,6 @@
     <t>INT(10),</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>NULL</t>
   </si>
   <si>
@@ -1114,7 +1107,7 @@
     <t>Account Focus - Outgoing Wire Transfers</t>
   </si>
   <si>
-    <t>C Focus - Net Wire Transfers</t>
+    <t>Customer Focus - Net Wire Transfers</t>
   </si>
   <si>
     <t>Customer Focus - Net Cash Transfers</t>
@@ -1276,11 +1269,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mmm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="DD/MMM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1291,11 +1285,26 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1317,7 +1326,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1372,181 +1381,251 @@
         <bgColor rgb="FFF79646"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <right style="medium"/>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right style="medium"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right style="medium"/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="33">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="1" customBuiltin="1"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="TableStyleLight1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1605,3215 +1684,2844 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B3:N28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83333333333333"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:12">
-      <c r="B3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
-      <c r="D4" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
-      <c r="B7" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
-      <c r="B8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
-      <c r="B10" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
-      <c r="B11" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
-      <c r="B13" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
-      <c r="H16">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L16">
-        <f>2*6*3*2</f>
+      <c r="L16" s="0" t="n">
+        <f aca="false">2*6*3*2</f>
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
-      <c r="B17" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
-      <c r="H18" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
-      <c r="B19" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
-      <c r="B20" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
-      <c r="B21" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
-      <c r="B22" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:14">
-      <c r="E25" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:14">
-      <c r="E26">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
-      <c r="E27">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
-      <c r="E28">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83333333333333"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="16" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="16" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="16" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="16" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="16" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="16" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="16" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="16" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="16" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="16" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="16" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="16" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="16" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="16" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="16" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="16" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="16" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="16" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="16" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="16" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="16" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="16" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="16" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="16" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="16" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="16" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="16" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="16" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="16" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="16" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="16" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="16" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="16" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="16" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="16" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="16" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="16" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="12" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="16" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="16" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="16" t="s">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="16" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="16" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="16" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="16" t="s">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
         <v>170</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83333333333333"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="13" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="0" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="0" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="0" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="0" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="0" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="0" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="0" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="0" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="0" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="0" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="0" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="0" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="0" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="0" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="0" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="0" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="C23" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="0" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="C24" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="C26" s="17" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="C27" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="0" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="C28" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="0" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="C29" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="0" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="C30" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="0" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="C31" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="0" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="C32" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="0" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.83203125" style="18"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="14" width="8.83333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="19" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B2"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="0"/>
+      <c r="C2" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="18" t="str">
-        <f t="shared" ref="E2:E25" si="0">CONCATENATE(C2," ",D2,",")</f>
+      <c r="E2" s="14" t="str">
+        <f aca="false">CONCATENATE(C2," ",D2,",")</f>
         <v>rule_uuid varchar(50),</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="18" t="str">
-        <f t="shared" ref="H2:H16" si="1">CONCATENATE(F2," ",G2,",")</f>
+      <c r="H2" s="14" t="str">
+        <f aca="false">CONCATENATE(F2," ",G2,",")</f>
         <v>rule_uuid varchar(50),</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="L2" s="18" t="str">
-        <f>CONCATENATE(J2," ",K2,",")</f>
+      <c r="L2" s="14" t="str">
+        <f aca="false">CONCATENATE(J2," ",K2,",")</f>
         <v>security_id int(10),</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="19" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B3"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="0"/>
+      <c r="C3" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E3" s="14" t="str">
+        <f aca="false">CONCATENATE(C3," ",D3,",")</f>
         <v>rule_version int(10),</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H3" s="14" t="str">
+        <f aca="false">CONCATENATE(F3," ",G3,",")</f>
         <v>rule_version int(10),</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="L3" s="18" t="str">
-        <f>CONCATENATE(J3," ",K3,",")</f>
+      <c r="L3" s="14" t="str">
+        <f aca="false">CONCATENATE(J3," ",K3,",")</f>
         <v>security_symbol varchar(50),</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="19" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="B4"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="0"/>
+      <c r="C4" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E4" s="14" t="str">
+        <f aca="false">CONCATENATE(C4," ",D4,",")</f>
         <v>rule_name varchar(100),</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H4" s="14" t="str">
+        <f aca="false">CONCATENATE(F4," ",G4,",")</f>
         <v>rule_name varchar(100),</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="18" t="str">
-        <f>CONCATENATE(J4," ",K4,",")</f>
+      <c r="L4" s="14" t="str">
+        <f aca="false">CONCATENATE(J4," ",K4,",")</f>
         <v>ric_code varchar(50),</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="19" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B5"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="0"/>
+      <c r="C5" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E5" s="14" t="str">
+        <f aca="false">CONCATENATE(C5," ",D5,",")</f>
         <v>datapod_uuid varchar(50),</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H5" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H5" s="14" t="str">
+        <f aca="false">CONCATENATE(F5," ",G5,",")</f>
         <v>datapod_uuid varchar(50),</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="L5" s="18" t="str">
-        <f>CONCATENATE(J5," ",K5,",")</f>
+      <c r="L5" s="14" t="str">
+        <f aca="false">CONCATENATE(J5," ",K5,",")</f>
         <v>security_description varchar(50),</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="19" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B6"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="0"/>
+      <c r="C6" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E6" s="14" t="str">
+        <f aca="false">CONCATENATE(C6," ",D6,",")</f>
         <v>datapod_version int(10),</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="H6" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H6" s="14" t="str">
+        <f aca="false">CONCATENATE(F6," ",G6,",")</f>
         <v>datapod_version int(10),</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="L6" s="18" t="str">
-        <f>CONCATENATE(J6," ",K6,",")</f>
+      <c r="L6" s="14" t="str">
+        <f aca="false">CONCATENATE(J6," ",K6,",")</f>
         <v>version int(10),</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="19" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B7"/>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="0"/>
+      <c r="C7" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E7" s="14" t="str">
+        <f aca="false">CONCATENATE(C7," ",D7,",")</f>
         <v>datapod_name varchar(50),</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H7" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H7" s="14" t="str">
+        <f aca="false">CONCATENATE(F7," ",G7,",")</f>
         <v>datapod_name varchar(50),</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="19" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B8"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="0"/>
+      <c r="C8" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E8" s="14" t="str">
+        <f aca="false">CONCATENATE(C8," ",D8,",")</f>
         <v>attribute_id varchar(50),</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H8" s="14" t="str">
+        <f aca="false">CONCATENATE(F8," ",G8,",")</f>
         <v>all_check_pass varchar(10),</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="19" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B9"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="0"/>
+      <c r="C9" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E9" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E9" s="14" t="str">
+        <f aca="false">CONCATENATE(C9," ",D9,",")</f>
         <v>attribute_name varchar(50),</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="H9" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H9" s="14" t="str">
+        <f aca="false">CONCATENATE(F9," ",G9,",")</f>
         <v>total_row_count int(10),</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="19" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B10"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="0"/>
+      <c r="C10" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E10" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E10" s="14" t="str">
+        <f aca="false">CONCATENATE(C10," ",D10,",")</f>
         <v>attribute_value varchar(500),</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="H10" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H10" s="14" t="str">
+        <f aca="false">CONCATENATE(F10," ",G10,",")</f>
         <v>total_pass_count int(10),</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="19" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="B11"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="0"/>
+      <c r="C11" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E11" s="14" t="str">
+        <f aca="false">CONCATENATE(C11," ",D11,",")</f>
         <v>rowkey_name varchar(500),</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="H11" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H11" s="14" t="str">
+        <f aca="false">CONCATENATE(F11," ",G11,",")</f>
         <v>total_fail_count int(10),</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="19" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="B12"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="0"/>
+      <c r="C12" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E12" s="14" t="str">
+        <f aca="false">CONCATENATE(C12," ",D12,",")</f>
         <v>rowkey_value varchar(500),</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H12" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H12" s="14" t="str">
+        <f aca="false">CONCATENATE(F12," ",G12,",")</f>
         <v>threshold_type varchar(50),</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="19" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E13" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E13" s="14" t="str">
+        <f aca="false">CONCATENATE(C13," ",D13,",")</f>
         <v>null_check_pass varchar(1),</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H13" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H13" s="14" t="str">
+        <f aca="false">CONCATENATE(F13," ",G13,",")</f>
         <v>threshold_limit int(3),</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="19" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E14" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E14" s="14" t="str">
+        <f aca="false">CONCATENATE(C14," ",D14,",")</f>
         <v>value_check_pass varchar(1),</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="H14" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H14" s="14" t="str">
+        <f aca="false">CONCATENATE(F14," ",G14,",")</f>
         <v>threshold_ind varchar(6),</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="19" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E15" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E15" s="14" t="str">
+        <f aca="false">CONCATENATE(C15," ",D15,",")</f>
         <v>range_check_pass varchar(1),</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H15" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H15" s="14" t="str">
+        <f aca="false">CONCATENATE(F15," ",G15,",")</f>
         <v>score int(3),</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="19" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E16" s="14" t="str">
+        <f aca="false">CONCATENATE(C16," ",D16,",")</f>
         <v>datatype_check_pass varchar(1),</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="H16" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="H16" s="14" t="str">
+        <f aca="false">CONCATENATE(F16," ",G16,",")</f>
         <v>version int(10),</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="19" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E17" s="14" t="str">
+        <f aca="false">CONCATENATE(C17," ",D17,",")</f>
         <v>format_check_pass varchar(1),</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="B18" s="18" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E18" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E18" s="14" t="str">
+        <f aca="false">CONCATENATE(C18," ",D18,",")</f>
         <v>length_check_pass varchar(1),</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="18" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E19" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E19" s="14" t="str">
+        <f aca="false">CONCATENATE(C19," ",D19,",")</f>
         <v>ri_check_pass varchar(1),</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="18" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E20" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E20" s="14" t="str">
+        <f aca="false">CONCATENATE(C20," ",D20,",")</f>
         <v>dup_check_pass varchar(1),</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="18" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E21" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E21" s="14" t="str">
+        <f aca="false">CONCATENATE(C21," ",D21,",")</f>
         <v>custom_check_pass varchar(1),</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="14" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="18" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E22" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E22" s="14" t="str">
+        <f aca="false">CONCATENATE(C22," ",D22,",")</f>
         <v>domain_check_pass varchar(1),</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="14" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="18" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E23" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E23" s="14" t="str">
+        <f aca="false">CONCATENATE(C23," ",D23,",")</f>
         <v>blankspace_check_pass varchar(1),</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="B24" s="18" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E24" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E24" s="14" t="str">
+        <f aca="false">CONCATENATE(C24," ",D24,",")</f>
         <v>expr_check_pass varchar(1),</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="C25" s="19" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="E25" s="14" t="str">
+        <f aca="false">CONCATENATE(C25," ",D25,",")</f>
         <v>all_check_pass varchar(1),</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="C26" s="19" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="C29" s="18" t="s">
+      <c r="E26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E29" s="18" t="str">
-        <f t="shared" ref="E29:E48" si="2">CONCATENATE(C29," ",D29,",")</f>
+      <c r="E29" s="14" t="str">
+        <f aca="false">CONCATENATE(C29," ",D29,",")</f>
         <v>datapoduuid varchar(50),</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="C30" s="18" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E30" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E30" s="14" t="str">
+        <f aca="false">CONCATENATE(C30," ",D30,",")</f>
         <v>datapodversion int(10),</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="C31" s="18" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E31" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E31" s="14" t="str">
+        <f aca="false">CONCATENATE(C31," ",D31,",")</f>
         <v>datapodname varchar(50),</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="C32" s="18" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E32" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E32" s="14" t="str">
+        <f aca="false">CONCATENATE(C32," ",D32,",")</f>
         <v>attributeid varchar(50),</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="18" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E33" s="14" t="str">
+        <f aca="false">CONCATENATE(C33," ",D33,",")</f>
         <v>attributename varchar(50),</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="18" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E34" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E34" s="14" t="str">
+        <f aca="false">CONCATENATE(C34," ",D34,",")</f>
         <v>numrows int(10),</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="18" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E35" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E35" s="14" t="str">
+        <f aca="false">CONCATENATE(C35," ",D35,",")</f>
         <v>minval double,</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="18" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E36" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E36" s="14" t="str">
+        <f aca="false">CONCATENATE(C36," ",D36,",")</f>
         <v>maxval double,</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="18" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E37" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E37" s="14" t="str">
+        <f aca="false">CONCATENATE(C37," ",D37,",")</f>
         <v>avgval double,</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="18" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E38" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E38" s="14" t="str">
+        <f aca="false">CONCATENATE(C38," ",D38,",")</f>
         <v>medianval double,</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="18" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E39" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E39" s="14" t="str">
+        <f aca="false">CONCATENATE(C39," ",D39,",")</f>
         <v>stddev double,</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
-      <c r="C40" s="18" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E40" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E40" s="14" t="str">
+        <f aca="false">CONCATENATE(C40," ",D40,",")</f>
         <v>numdistinct double,</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="18" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E41" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E41" s="14" t="str">
+        <f aca="false">CONCATENATE(C41," ",D41,",")</f>
         <v>perdistinct double,</v>
       </c>
     </row>
-    <row r="42" spans="3:5">
-      <c r="C42" s="18" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E42" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E42" s="14" t="str">
+        <f aca="false">CONCATENATE(C42," ",D42,",")</f>
         <v>numnull double,</v>
       </c>
     </row>
-    <row r="43" spans="3:5">
-      <c r="C43" s="18" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E43" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E43" s="14" t="str">
+        <f aca="false">CONCATENATE(C43," ",D43,",")</f>
         <v>pernull double,</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
-      <c r="C44" s="18" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E44" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E44" s="14" t="str">
+        <f aca="false">CONCATENATE(C44," ",D44,",")</f>
         <v>minlength double,</v>
       </c>
     </row>
-    <row r="45" spans="3:5">
-      <c r="C45" s="18" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E45" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E45" s="14" t="str">
+        <f aca="false">CONCATENATE(C45," ",D45,",")</f>
         <v>maxlength double,</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
-      <c r="C46" s="18" t="s">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E46" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E46" s="14" t="str">
+        <f aca="false">CONCATENATE(C46," ",D46,",")</f>
         <v>avglength double,</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
-      <c r="C47" s="18" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E47" s="14" t="str">
+        <f aca="false">CONCATENATE(C47," ",D47,",")</f>
         <v>numduplicates int(10),</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="18" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E48" s="18" t="str">
-        <f t="shared" si="2"/>
+      <c r="E48" s="14" t="str">
+        <f aca="false">CONCATENATE(C48," ",D48,",")</f>
         <v>version int(10),</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B5:P31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83333333333333"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:16">
-      <c r="C5" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="3:16">
-      <c r="J6" t="str">
-        <f t="shared" ref="J6:J31" si="0">CONCATENATE(L6," ",M6)</f>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="0" t="str">
+        <f aca="false">CONCATENATE(L6," ",M6)</f>
         <v>null_pass_count INT(10),</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="O6" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J7" s="0" t="str">
+        <f aca="false">CONCATENATE(L7," ",M7)</f>
+        <v>null_fail_count INT(10),</v>
+      </c>
+      <c r="L7" s="0" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="7" spans="3:16">
-      <c r="J7" t="str">
-        <f t="shared" si="0"/>
-        <v>null_fail_count INT(10),</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" s="0" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" s="0" t="str">
+        <f aca="false">CONCATENATE(L8," ",M8)</f>
+        <v>value_pass_count INT(10),</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="M8" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N7" t="s">
-        <v>311</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="N8" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16">
-      <c r="J8" t="str">
-        <f t="shared" si="0"/>
-        <v>value_pass_count INT(10),</v>
-      </c>
-      <c r="L8" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J9" s="0" t="str">
+        <f aca="false">CONCATENATE(L9," ",M9)</f>
+        <v>value_fail_count INT(10),</v>
+      </c>
+      <c r="L9" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N8" t="s">
-        <v>311</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N9" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="3:16">
-      <c r="J9" t="str">
-        <f t="shared" si="0"/>
-        <v>value_fail_count INT(10),</v>
-      </c>
-      <c r="L9" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J10" s="0" t="str">
+        <f aca="false">CONCATENATE(L10," ",M10)</f>
+        <v>range_pass_count INT(10),</v>
+      </c>
+      <c r="L10" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M10" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N9" t="s">
-        <v>311</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="N10" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P10" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="3:16">
-      <c r="J10" t="str">
-        <f t="shared" si="0"/>
-        <v>range_pass_count INT(10),</v>
-      </c>
-      <c r="L10" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="M10" t="s">
+      <c r="J11" s="0" t="str">
+        <f aca="false">CONCATENATE(L11," ",M11)</f>
+        <v>range_fail_count INT(10),</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="M11" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N10" t="s">
-        <v>311</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="N11" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P11" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" spans="3:16">
-      <c r="G11" t="s">
-        <v>315</v>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v>range_fail_count INT(10),</v>
-      </c>
-      <c r="L11" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="M11" t="s">
+      <c r="J12" s="0" t="str">
+        <f aca="false">CONCATENATE(L12," ",M12)</f>
+        <v>datatype_pass_count INT(10),</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="M12" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N11" t="s">
-        <v>311</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="N12" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P12" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16">
-      <c r="G12" t="s">
-        <v>317</v>
-      </c>
-      <c r="J12" t="str">
-        <f t="shared" si="0"/>
-        <v>datatype_pass_count INT(10),</v>
-      </c>
-      <c r="L12" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="0" t="str">
+        <f aca="false">CONCATENATE(L13," ",M13)</f>
+        <v>datatype_fail_count INT(10),</v>
+      </c>
+      <c r="L13" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M13" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N12" t="s">
-        <v>311</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="N13" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P13" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="3:16">
-      <c r="J13" t="str">
-        <f t="shared" si="0"/>
-        <v>datatype_fail_count INT(10),</v>
-      </c>
-      <c r="L13" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J14" s="0" t="str">
+        <f aca="false">CONCATENATE(L14," ",M14)</f>
+        <v>format_pass_count INT(10),</v>
+      </c>
+      <c r="L14" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M14" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N13" t="s">
-        <v>311</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="N14" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P14" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P13" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="3:16">
-      <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v>format_pass_count INT(10),</v>
-      </c>
-      <c r="L14" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J15" s="0" t="str">
+        <f aca="false">CONCATENATE(L15," ",M15)</f>
+        <v>format_fail_count INT(10),</v>
+      </c>
+      <c r="L15" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M15" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N14" t="s">
-        <v>311</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="N15" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P15" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="3:16">
-      <c r="J15" t="str">
-        <f t="shared" si="0"/>
-        <v>format_fail_count INT(10),</v>
-      </c>
-      <c r="L15" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="0" t="str">
+        <f aca="false">CONCATENATE(L16," ",M16)</f>
+        <v>length_pass_count INT(10),</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M16" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N15" t="s">
-        <v>311</v>
-      </c>
-      <c r="O15" t="s">
+      <c r="N16" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P16" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="3:16">
-      <c r="J16" t="str">
-        <f t="shared" si="0"/>
-        <v>length_pass_count INT(10),</v>
-      </c>
-      <c r="L16" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="M16" t="s">
+      <c r="D17" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="J17" s="0" t="str">
+        <f aca="false">CONCATENATE(L17," ",M17)</f>
+        <v>length_fail_count INT(10),</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="M17" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N16" t="s">
-        <v>311</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="N17" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P17" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" t="s">
-        <v>323</v>
-      </c>
-      <c r="D17" t="s">
-        <v>324</v>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="0"/>
-        <v>length_fail_count INT(10),</v>
-      </c>
-      <c r="L17" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J18" s="0" t="str">
+        <f aca="false">CONCATENATE(L18," ",M18)</f>
+        <v>refint_pass_count INT(10),</v>
+      </c>
+      <c r="L18" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M18" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N17" t="s">
-        <v>311</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="N18" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P18" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P17" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="J18" t="str">
-        <f t="shared" si="0"/>
-        <v>refint_pass_count INT(10),</v>
-      </c>
-      <c r="L18" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="0" t="str">
+        <f aca="false">CONCATENATE(L19," ",M19)</f>
+        <v>refint_fail_count INT(10),</v>
+      </c>
+      <c r="L19" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M19" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N18" t="s">
-        <v>311</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="N19" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P19" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P18" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="J19" t="str">
-        <f t="shared" si="0"/>
-        <v>refint_fail_count INT(10),</v>
-      </c>
-      <c r="L19" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J20" s="0" t="str">
+        <f aca="false">CONCATENATE(L20," ",M20)</f>
+        <v>dup_pass_count INT(10),</v>
+      </c>
+      <c r="L20" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M20" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N19" t="s">
-        <v>311</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="N20" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P20" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="J20" t="str">
-        <f t="shared" si="0"/>
-        <v>dup_pass_count INT(10),</v>
-      </c>
-      <c r="L20" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J21" s="0" t="str">
+        <f aca="false">CONCATENATE(L21," ",M21)</f>
+        <v>dup_fail_count INT(10),</v>
+      </c>
+      <c r="L21" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M21" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N20" t="s">
-        <v>311</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="N21" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P21" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P20" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="J21" t="str">
-        <f t="shared" si="0"/>
-        <v>dup_fail_count INT(10),</v>
-      </c>
-      <c r="L21" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="0" t="str">
+        <f aca="false">CONCATENATE(L22," ",M22)</f>
+        <v>custom_pass_count INT(10),</v>
+      </c>
+      <c r="L22" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M22" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N21" t="s">
-        <v>311</v>
-      </c>
-      <c r="O21" t="s">
+      <c r="N22" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P22" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="J22" t="str">
-        <f t="shared" si="0"/>
-        <v>custom_pass_count INT(10),</v>
-      </c>
-      <c r="L22" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J23" s="0" t="str">
+        <f aca="false">CONCATENATE(L23," ",M23)</f>
+        <v>custom_fail_count INT(10),</v>
+      </c>
+      <c r="L23" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M23" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N22" t="s">
-        <v>311</v>
-      </c>
-      <c r="O22" t="s">
+      <c r="N23" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P23" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="J23" t="str">
-        <f t="shared" si="0"/>
-        <v>custom_fail_count INT(10),</v>
-      </c>
-      <c r="L23" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="0" t="str">
+        <f aca="false">CONCATENATE(L24," ",M24)</f>
+        <v>domain_pass_count INT(10),</v>
+      </c>
+      <c r="L24" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M24" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N23" t="s">
-        <v>311</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="N24" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P24" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="J24" t="str">
-        <f t="shared" si="0"/>
-        <v>domain_pass_count INT(10),</v>
-      </c>
-      <c r="L24" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J25" s="0" t="str">
+        <f aca="false">CONCATENATE(L25," ",M25)</f>
+        <v>domain_fail_count INT(10),</v>
+      </c>
+      <c r="L25" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M25" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N24" t="s">
-        <v>311</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="N25" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P25" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P24" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="J25" t="str">
-        <f t="shared" si="0"/>
-        <v>domain_fail_count INT(10),</v>
-      </c>
-      <c r="L25" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="0" t="str">
+        <f aca="false">CONCATENATE(L26," ",M26)</f>
+        <v>blank_pass_count INT(10),</v>
+      </c>
+      <c r="L26" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M26" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N25" t="s">
-        <v>311</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="N26" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P26" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="J26" t="str">
-        <f t="shared" si="0"/>
-        <v>blank_pass_count INT(10),</v>
-      </c>
-      <c r="L26" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="0" t="str">
+        <f aca="false">CONCATENATE(L27," ",M27)</f>
+        <v>blank_fail_count INT(10),</v>
+      </c>
+      <c r="L27" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M27" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N26" t="s">
-        <v>311</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="N27" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P27" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="J27" t="str">
-        <f t="shared" si="0"/>
-        <v>blank_fail_count INT(10),</v>
-      </c>
-      <c r="L27" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="0" t="str">
+        <f aca="false">CONCATENATE(L28," ",M28)</f>
+        <v>expression_pass_count INT(10),</v>
+      </c>
+      <c r="L28" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M28" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N27" t="s">
-        <v>311</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="N28" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P28" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="J28" t="str">
-        <f t="shared" si="0"/>
-        <v>expression_pass_count INT(10),</v>
-      </c>
-      <c r="L28" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="0" t="str">
+        <f aca="false">CONCATENATE(L29," ",M29)</f>
+        <v>expression_fail_count INT(10),</v>
+      </c>
+      <c r="L29" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M29" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N28" t="s">
-        <v>311</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="N29" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P29" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P28" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>expression_fail_count INT(10),</v>
-      </c>
-      <c r="L29" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="0" t="str">
+        <f aca="false">CONCATENATE(L30," ",M30)</f>
+        <v>case_pass_count INT(10),</v>
+      </c>
+      <c r="L30" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M30" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N29" t="s">
-        <v>311</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="N30" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="P30" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="P29" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>case_pass_count INT(10),</v>
-      </c>
-      <c r="L30" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="0" t="str">
+        <f aca="false">CONCATENATE(L31," ",M31)</f>
+        <v>case_fail_count INT(10),</v>
+      </c>
+      <c r="L31" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M31" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="N30" t="s">
-        <v>311</v>
-      </c>
-      <c r="O30" t="s">
-        <v>308</v>
-      </c>
-      <c r="P30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>case_fail_count INT(10),</v>
-      </c>
-      <c r="L31" t="s">
-        <v>339</v>
-      </c>
-      <c r="M31" t="s">
-        <v>307</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:BF62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="R45" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T52" sqref="T52"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="R13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="U55" activeCellId="0" sqref="U55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="39" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="41" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="41" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="46.83203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="47.5" bestFit="1" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.0037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.4962962962963"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.162962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.662962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="34.5"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.662962962963"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.3777777777778"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.162962962963"/>
+    <col collapsed="false" hidden="false" max="14" min="11" style="0" width="35.8333333333333"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="40.3333333333333"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="45.6666666666667"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="40.162962962963"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="45.6666666666667"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="41.4962962962963"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="46.8333333333333"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="41.3333333333333"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="46.8333333333333"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="0" width="37.8333333333333"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="0" width="39"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="0" width="37.5"/>
+    <col collapsed="false" hidden="false" max="34" min="33" style="0" width="38.662962962963"/>
+    <col collapsed="false" hidden="false" max="37" min="35" style="0" width="45.5"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="41"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="45.5"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="41"/>
+    <col collapsed="false" hidden="false" max="42" min="41" style="0" width="46.662962962963"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="46.8333333333333"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="42.162962962963"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="46.662962962963"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="42.162962962963"/>
+    <col collapsed="false" hidden="false" max="48" min="47" style="0" width="46.162962962963"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="41.6592592592593"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="46.162962962963"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="41.6592592592593"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="46.162962962963"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="47.8333333333333"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="47.5"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="42.837037037037"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="47.5"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="42.837037037037"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="47.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="59" style="0" width="8.83333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58">
-      <c r="C1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="AB1">
+      <c r="AB1" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="AC1">
+      <c r="AC1" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="AD1">
+      <c r="AD1" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="AE1">
+      <c r="AE1" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="AF1">
+      <c r="AF1" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="AG1">
+      <c r="AG1" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="AH1">
+      <c r="AH1" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="AI1">
+      <c r="AI1" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="AJ1">
+      <c r="AJ1" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="AK1">
+      <c r="AK1" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="AL1">
+      <c r="AL1" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="AM1">
+      <c r="AM1" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="AN1">
+      <c r="AN1" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="AO1">
+      <c r="AO1" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="AP1">
+      <c r="AP1" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="AQ1">
+      <c r="AQ1" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="AR1">
+      <c r="AR1" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="AS1">
+      <c r="AS1" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="AT1">
+      <c r="AT1" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="AU1">
+      <c r="AU1" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="AV1">
+      <c r="AV1" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="AW1">
+      <c r="AW1" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="AX1">
+      <c r="AX1" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="AY1">
+      <c r="AY1" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="AZ1">
+      <c r="AZ1" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="BA1">
+      <c r="BA1" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="BB1">
+      <c r="BB1" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="BC1">
+      <c r="BC1" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="BD1">
+      <c r="BD1" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="BE1">
+      <c r="BE1" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="BF1">
+      <c r="BF1" s="0" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="20">
-      <c r="C2" s="4" t="s">
+    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="1"/>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="2" t="s">
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="19"/>
+      <c r="BC2" s="19"/>
+      <c r="BD2" s="19"/>
+      <c r="BE2" s="19"/>
+      <c r="BF2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="BB2" s="1"/>
-      <c r="BC2" s="1"/>
-      <c r="BD2" s="1"/>
-      <c r="BE2" s="1"/>
-      <c r="BF2" s="1"/>
-    </row>
-    <row r="3" spans="1:58">
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="I3" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="K3" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="L3" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="N3" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="O3" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="P3" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="Q3" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="R3" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="S3" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="T3" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="U3" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="V3" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="W3" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="X3" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="Y3" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Z3" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="Z3" s="22" t="s">
+      <c r="AA3" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="AA3" s="21" t="s">
+      <c r="AB3" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AC3" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="AC3" s="22" t="s">
+      <c r="AD3" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="AD3" s="22" t="s">
+      <c r="AE3" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="AE3" s="21" t="s">
+      <c r="AF3" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="AF3" s="21" t="s">
+      <c r="AG3" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="AG3" s="22" t="s">
+      <c r="AH3" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="AH3" s="22" t="s">
+      <c r="AI3" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="AI3" s="21" t="s">
+      <c r="AJ3" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="AJ3" s="21" t="s">
+      <c r="AK3" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="AK3" s="21" t="s">
+      <c r="AL3" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="AL3" s="21" t="s">
+      <c r="AM3" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="AM3" s="21" t="s">
+      <c r="AN3" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="AN3" s="21" t="s">
+      <c r="AO3" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="AO3" s="22" t="s">
+      <c r="AP3" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="AP3" s="22" t="s">
+      <c r="AQ3" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="AQ3" s="22" t="s">
+      <c r="AR3" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="AR3" s="22" t="s">
+      <c r="AS3" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="AS3" s="22" t="s">
+      <c r="AT3" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="AT3" s="22" t="s">
+      <c r="AU3" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="AU3" s="21" t="s">
+      <c r="AV3" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="AV3" s="21" t="s">
+      <c r="AW3" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="AW3" s="21" t="s">
+      <c r="AX3" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="AX3" s="21" t="s">
+      <c r="AY3" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="AY3" s="21" t="s">
+      <c r="AZ3" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="AZ3" s="21" t="s">
+      <c r="BA3" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="BA3" s="22" t="s">
+      <c r="BB3" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="BB3" s="22" t="s">
+      <c r="BC3" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="BC3" s="22" t="s">
+      <c r="BD3" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="BD3" s="22" t="s">
+      <c r="BE3" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="BE3" s="22" t="s">
+      <c r="BF3" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="BF3" s="22" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
         <v>177</v>
       </c>
@@ -4874,7 +4582,7 @@
       <c r="BE4" s="22"/>
       <c r="BF4" s="22"/>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
         <v>180</v>
       </c>
@@ -4935,7 +4643,7 @@
       <c r="BE5" s="22"/>
       <c r="BF5" s="22"/>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
         <v>181</v>
       </c>
@@ -4996,7 +4704,7 @@
       <c r="BE6" s="22"/>
       <c r="BF6" s="22"/>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
         <v>184</v>
       </c>
@@ -5057,7 +4765,7 @@
       <c r="BE7" s="22"/>
       <c r="BF7" s="22"/>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
         <v>186</v>
       </c>
@@ -5118,14 +4826,14 @@
       <c r="BE8" s="22"/>
       <c r="BF8" s="22"/>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
         <v>121</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -5133,7 +4841,7 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
@@ -5143,12 +4851,12 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="26" t="s">
-        <v>409</v>
+      <c r="T9" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="28"/>
+      <c r="W9" s="29"/>
       <c r="X9" s="22"/>
       <c r="Y9" s="22"/>
       <c r="Z9" s="22"/>
@@ -5185,14 +4893,14 @@
       <c r="BE9" s="22"/>
       <c r="BF9" s="22"/>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
         <v>122</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -5200,7 +4908,7 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
@@ -5250,7 +4958,7 @@
       <c r="BE10" s="22"/>
       <c r="BF10" s="22"/>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
         <v>123</v>
       </c>
@@ -5260,7 +4968,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
       <c r="H11" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -5268,26 +4976,26 @@
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O11" s="21"/>
-      <c r="P11" s="26" t="s">
-        <v>409</v>
+      <c r="P11" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="Q11" s="21"/>
       <c r="R11" s="21"/>
-      <c r="S11" s="26" t="s">
-        <v>409</v>
+      <c r="S11" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="T11" s="21"/>
       <c r="U11" s="22"/>
-      <c r="V11" s="26" t="s">
-        <v>409</v>
+      <c r="V11" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="W11" s="22"/>
       <c r="X11" s="22"/>
-      <c r="Y11" s="26" t="s">
-        <v>409</v>
+      <c r="Y11" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="Z11" s="22"/>
       <c r="AA11" s="21"/>
@@ -5323,7 +5031,7 @@
       <c r="BE11" s="22"/>
       <c r="BF11" s="22"/>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
         <v>124</v>
       </c>
@@ -5333,7 +5041,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
@@ -5341,26 +5049,26 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
       <c r="N12" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O12" s="21"/>
-      <c r="P12" s="26" t="s">
-        <v>409</v>
+      <c r="P12" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
-      <c r="S12" s="26" t="s">
-        <v>409</v>
+      <c r="S12" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="T12" s="21"/>
       <c r="U12" s="22"/>
-      <c r="V12" s="26" t="s">
-        <v>409</v>
+      <c r="V12" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="W12" s="22"/>
       <c r="X12" s="22"/>
-      <c r="Y12" s="26" t="s">
-        <v>409</v>
+      <c r="Y12" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="Z12" s="22"/>
       <c r="AA12" s="21"/>
@@ -5396,12 +5104,12 @@
       <c r="BE12" s="22"/>
       <c r="BF12" s="22"/>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
         <v>125</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -5409,7 +5117,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="21"/>
       <c r="I13" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -5461,12 +5169,12 @@
       <c r="BE13" s="22"/>
       <c r="BF13" s="22"/>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
         <v>126</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -5474,7 +5182,7 @@
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -5526,7 +5234,7 @@
       <c r="BE14" s="22"/>
       <c r="BF14" s="22"/>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
         <v>127</v>
       </c>
@@ -5534,7 +5242,7 @@
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -5542,27 +5250,25 @@
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
-      <c r="Q15" s="26" t="s">
-        <v>409</v>
-      </c>
+      <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="22"/>
       <c r="V15" s="22"/>
-      <c r="W15" s="26" t="s">
-        <v>409</v>
+      <c r="W15" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="X15" s="22"/>
       <c r="Y15" s="22"/>
-      <c r="Z15" s="29" t="s">
-        <v>409</v>
+      <c r="Z15" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
@@ -5597,7 +5303,7 @@
       <c r="BE15" s="22"/>
       <c r="BF15" s="22"/>
     </row>
-    <row r="16" spans="1:58">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
         <v>128</v>
       </c>
@@ -5605,7 +5311,7 @@
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -5613,27 +5319,25 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
-      <c r="Q16" s="26" t="s">
-        <v>409</v>
-      </c>
+      <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="22"/>
       <c r="V16" s="22"/>
-      <c r="W16" s="26" t="s">
-        <v>409</v>
+      <c r="W16" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="X16" s="22"/>
       <c r="Y16" s="22"/>
-      <c r="Z16" s="29" t="s">
-        <v>409</v>
+      <c r="Z16" s="28" t="s">
+        <v>408</v>
       </c>
       <c r="AA16" s="21"/>
       <c r="AB16" s="21"/>
@@ -5668,7 +5372,7 @@
       <c r="BE16" s="22"/>
       <c r="BF16" s="22"/>
     </row>
-    <row r="17" spans="1:58">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
         <v>129</v>
       </c>
@@ -5677,7 +5381,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="22"/>
@@ -5685,7 +5389,7 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="21"/>
@@ -5733,7 +5437,7 @@
       <c r="BE17" s="22"/>
       <c r="BF17" s="22"/>
     </row>
-    <row r="18" spans="1:58">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
         <v>130</v>
       </c>
@@ -5742,7 +5446,7 @@
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
@@ -5750,7 +5454,7 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N18" s="22"/>
       <c r="O18" s="21"/>
@@ -5758,9 +5462,7 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="29" t="s">
-        <v>409</v>
-      </c>
+      <c r="T18" s="21"/>
       <c r="U18" s="22"/>
       <c r="V18" s="22"/>
       <c r="W18" s="22"/>
@@ -5800,13 +5502,13 @@
       <c r="BE18" s="22"/>
       <c r="BF18" s="22"/>
     </row>
-    <row r="19" spans="1:58">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="s">
         <v>131</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -5814,7 +5516,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="22"/>
       <c r="J19" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
@@ -5865,13 +5567,13 @@
       <c r="BE19" s="22"/>
       <c r="BF19" s="22"/>
     </row>
-    <row r="20" spans="1:58">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="s">
         <v>132</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -5879,7 +5581,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -5930,7 +5632,7 @@
       <c r="BE20" s="22"/>
       <c r="BF20" s="22"/>
     </row>
-    <row r="21" spans="1:58">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
         <v>133</v>
       </c>
@@ -5940,14 +5642,14 @@
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="28"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
       <c r="O21" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
@@ -5955,7 +5657,7 @@
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
       <c r="U21" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
@@ -5995,7 +5697,7 @@
       <c r="BE21" s="22"/>
       <c r="BF21" s="22"/>
     </row>
-    <row r="22" spans="1:58">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="s">
         <v>134</v>
       </c>
@@ -6016,7 +5718,7 @@
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
@@ -6024,7 +5726,7 @@
       <c r="V22" s="22"/>
       <c r="W22" s="22"/>
       <c r="X22" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
@@ -6061,7 +5763,7 @@
       <c r="BE22" s="22"/>
       <c r="BF22" s="22"/>
     </row>
-    <row r="23" spans="1:58">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
         <v>135</v>
       </c>
@@ -6080,13 +5782,17 @@
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
+      <c r="R23" s="26" t="s">
+        <v>408</v>
+      </c>
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
       <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
+      <c r="X23" s="26" t="s">
+        <v>408</v>
+      </c>
       <c r="Y23" s="22"/>
       <c r="Z23" s="22"/>
       <c r="AA23" s="21"/>
@@ -6122,7 +5828,7 @@
       <c r="BE23" s="22"/>
       <c r="BF23" s="22"/>
     </row>
-    <row r="24" spans="1:58">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="s">
         <v>136</v>
       </c>
@@ -6183,7 +5889,7 @@
       <c r="BE24" s="22"/>
       <c r="BF24" s="22"/>
     </row>
-    <row r="25" spans="1:58">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
         <v>137</v>
       </c>
@@ -6203,17 +5909,13 @@
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
-      <c r="R25" s="26" t="s">
-        <v>409</v>
-      </c>
+      <c r="R25" s="21"/>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
-      <c r="X25" s="26" t="s">
-        <v>409</v>
-      </c>
+      <c r="X25" s="22"/>
       <c r="Y25" s="22"/>
       <c r="Z25" s="22"/>
       <c r="AA25" s="21"/>
@@ -6249,7 +5951,7 @@
       <c r="BE25" s="22"/>
       <c r="BF25" s="22"/>
     </row>
-    <row r="26" spans="1:58">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="s">
         <v>138</v>
       </c>
@@ -6266,7 +5968,7 @@
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
       <c r="O26" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
@@ -6274,7 +5976,7 @@
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="V26" s="22"/>
       <c r="W26" s="22"/>
@@ -6314,7 +6016,7 @@
       <c r="BE26" s="22"/>
       <c r="BF26" s="22"/>
     </row>
-    <row r="27" spans="1:58">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="s">
         <v>139</v>
       </c>
@@ -6375,7 +6077,7 @@
       <c r="BE27" s="22"/>
       <c r="BF27" s="22"/>
     </row>
-    <row r="28" spans="1:58">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="s">
         <v>140</v>
       </c>
@@ -6436,7 +6138,7 @@
       <c r="BE28" s="22"/>
       <c r="BF28" s="22"/>
     </row>
-    <row r="29" spans="1:58">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
         <v>141</v>
       </c>
@@ -6497,7 +6199,7 @@
       <c r="BE29" s="22"/>
       <c r="BF29" s="22"/>
     </row>
-    <row r="30" spans="1:58">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="s">
         <v>142</v>
       </c>
@@ -6558,7 +6260,7 @@
       <c r="BE30" s="22"/>
       <c r="BF30" s="22"/>
     </row>
-    <row r="31" spans="1:58">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="s">
         <v>143</v>
       </c>
@@ -6619,7 +6321,7 @@
       <c r="BE31" s="22"/>
       <c r="BF31" s="22"/>
     </row>
-    <row r="32" spans="1:58">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="s">
         <v>144</v>
       </c>
@@ -6680,7 +6382,7 @@
       <c r="BE32" s="22"/>
       <c r="BF32" s="22"/>
     </row>
-    <row r="33" spans="1:58">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
         <v>145</v>
       </c>
@@ -6741,7 +6443,7 @@
       <c r="BE33" s="22"/>
       <c r="BF33" s="22"/>
     </row>
-    <row r="34" spans="1:58">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="s">
         <v>146</v>
       </c>
@@ -6802,7 +6504,7 @@
       <c r="BE34" s="22"/>
       <c r="BF34" s="22"/>
     </row>
-    <row r="35" spans="1:58">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
         <v>147</v>
       </c>
@@ -6863,7 +6565,7 @@
       <c r="BE35" s="22"/>
       <c r="BF35" s="22"/>
     </row>
-    <row r="36" spans="1:58">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
         <v>148</v>
       </c>
@@ -6924,7 +6626,7 @@
       <c r="BE36" s="22"/>
       <c r="BF36" s="22"/>
     </row>
-    <row r="37" spans="1:58">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="25" t="s">
         <v>149</v>
       </c>
@@ -6985,7 +6687,7 @@
       <c r="BE37" s="22"/>
       <c r="BF37" s="22"/>
     </row>
-    <row r="38" spans="1:58">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="s">
         <v>150</v>
       </c>
@@ -7046,7 +6748,7 @@
       <c r="BE38" s="22"/>
       <c r="BF38" s="22"/>
     </row>
-    <row r="39" spans="1:58">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="s">
         <v>151</v>
       </c>
@@ -7107,7 +6809,7 @@
       <c r="BE39" s="22"/>
       <c r="BF39" s="22"/>
     </row>
-    <row r="40" spans="1:58">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="25" t="s">
         <v>152</v>
       </c>
@@ -7168,7 +6870,7 @@
       <c r="BE40" s="22"/>
       <c r="BF40" s="22"/>
     </row>
-    <row r="41" spans="1:58">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="25" t="s">
         <v>153</v>
       </c>
@@ -7229,7 +6931,7 @@
       <c r="BE41" s="22"/>
       <c r="BF41" s="22"/>
     </row>
-    <row r="42" spans="1:58">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="s">
         <v>154</v>
       </c>
@@ -7290,7 +6992,7 @@
       <c r="BE42" s="22"/>
       <c r="BF42" s="22"/>
     </row>
-    <row r="43" spans="1:58">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
         <v>155</v>
       </c>
@@ -7351,7 +7053,7 @@
       <c r="BE43" s="22"/>
       <c r="BF43" s="22"/>
     </row>
-    <row r="44" spans="1:58">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="s">
         <v>156</v>
       </c>
@@ -7412,7 +7114,7 @@
       <c r="BE44" s="22"/>
       <c r="BF44" s="22"/>
     </row>
-    <row r="45" spans="1:58">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="25" t="s">
         <v>157</v>
       </c>
@@ -7473,7 +7175,7 @@
       <c r="BE45" s="22"/>
       <c r="BF45" s="22"/>
     </row>
-    <row r="46" spans="1:58">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="25" t="s">
         <v>158</v>
       </c>
@@ -7534,7 +7236,7 @@
       <c r="BE46" s="22"/>
       <c r="BF46" s="22"/>
     </row>
-    <row r="47" spans="1:58">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="s">
         <v>159</v>
       </c>
@@ -7595,7 +7297,7 @@
       <c r="BE47" s="22"/>
       <c r="BF47" s="22"/>
     </row>
-    <row r="48" spans="1:58">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="25" t="s">
         <v>160</v>
       </c>
@@ -7656,7 +7358,7 @@
       <c r="BE48" s="22"/>
       <c r="BF48" s="22"/>
     </row>
-    <row r="49" spans="1:58">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="25" t="s">
         <v>161</v>
       </c>
@@ -7717,7 +7419,7 @@
       <c r="BE49" s="22"/>
       <c r="BF49" s="22"/>
     </row>
-    <row r="50" spans="1:58">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="25" t="s">
         <v>162</v>
       </c>
@@ -7778,7 +7480,7 @@
       <c r="BE50" s="22"/>
       <c r="BF50" s="22"/>
     </row>
-    <row r="51" spans="1:58">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="25" t="s">
         <v>163</v>
       </c>
@@ -7796,7 +7498,9 @@
       <c r="N51" s="22"/>
       <c r="O51" s="21"/>
       <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
+      <c r="Q51" s="26" t="s">
+        <v>408</v>
+      </c>
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
       <c r="T51" s="21"/>
@@ -7839,7 +7543,7 @@
       <c r="BE51" s="22"/>
       <c r="BF51" s="22"/>
     </row>
-    <row r="52" spans="1:58">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="25" t="s">
         <v>164</v>
       </c>
@@ -7860,7 +7564,9 @@
       <c r="Q52" s="21"/>
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
-      <c r="T52" s="33"/>
+      <c r="T52" s="26" t="s">
+        <v>408</v>
+      </c>
       <c r="U52" s="22"/>
       <c r="V52" s="22"/>
       <c r="W52" s="22"/>
@@ -7900,7 +7606,7 @@
       <c r="BE52" s="22"/>
       <c r="BF52" s="22"/>
     </row>
-    <row r="53" spans="1:58">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="25" t="s">
         <v>165</v>
       </c>
@@ -7920,7 +7626,9 @@
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
       <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
+      <c r="S53" s="26" t="s">
+        <v>408</v>
+      </c>
       <c r="T53" s="21"/>
       <c r="U53" s="22"/>
       <c r="V53" s="22"/>
@@ -7961,7 +7669,7 @@
       <c r="BE53" s="22"/>
       <c r="BF53" s="22"/>
     </row>
-    <row r="54" spans="1:58">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="s">
         <v>166</v>
       </c>
@@ -7978,7 +7686,9 @@
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
+      <c r="P54" s="26" t="s">
+        <v>408</v>
+      </c>
       <c r="Q54" s="21"/>
       <c r="R54" s="21"/>
       <c r="S54" s="21"/>
@@ -8022,7 +7732,7 @@
       <c r="BE54" s="22"/>
       <c r="BF54" s="22"/>
     </row>
-    <row r="55" spans="1:58">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="s">
         <v>167</v>
       </c>
@@ -8039,7 +7749,9 @@
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
+      <c r="P55" s="26" t="s">
+        <v>408</v>
+      </c>
       <c r="Q55" s="21"/>
       <c r="R55" s="21"/>
       <c r="S55" s="21"/>
@@ -8083,7 +7795,7 @@
       <c r="BE55" s="22"/>
       <c r="BF55" s="22"/>
     </row>
-    <row r="56" spans="1:58">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="25" t="s">
         <v>168</v>
       </c>
@@ -8103,7 +7815,9 @@
       <c r="P56" s="21"/>
       <c r="Q56" s="21"/>
       <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
+      <c r="S56" s="26" t="s">
+        <v>408</v>
+      </c>
       <c r="T56" s="21"/>
       <c r="U56" s="22"/>
       <c r="V56" s="22"/>
@@ -8144,7 +7858,7 @@
       <c r="BE56" s="22"/>
       <c r="BF56" s="22"/>
     </row>
-    <row r="57" spans="1:58">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="25" t="s">
         <v>169</v>
       </c>
@@ -8165,7 +7879,9 @@
       <c r="Q57" s="21"/>
       <c r="R57" s="21"/>
       <c r="S57" s="21"/>
-      <c r="T57" s="33"/>
+      <c r="T57" s="26" t="s">
+        <v>408</v>
+      </c>
       <c r="U57" s="22"/>
       <c r="V57" s="22"/>
       <c r="W57" s="22"/>
@@ -8205,7 +7921,7 @@
       <c r="BE57" s="22"/>
       <c r="BF57" s="22"/>
     </row>
-    <row r="58" spans="1:58">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="25" t="s">
         <v>170</v>
       </c>
@@ -8223,7 +7939,9 @@
       <c r="N58" s="22"/>
       <c r="O58" s="21"/>
       <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
+      <c r="Q58" s="26" t="s">
+        <v>408</v>
+      </c>
       <c r="R58" s="21"/>
       <c r="S58" s="21"/>
       <c r="T58" s="21"/>
@@ -8266,9 +7984,9 @@
       <c r="BE58" s="22"/>
       <c r="BF58" s="22"/>
     </row>
-    <row r="59" spans="1:58">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="27"/>
@@ -8296,11 +8014,11 @@
       <c r="Z59" s="22"/>
       <c r="AA59" s="21"/>
       <c r="AB59" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AC59" s="22"/>
       <c r="AD59" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE59" s="21"/>
       <c r="AF59" s="21"/>
@@ -8331,9 +8049,9 @@
       <c r="BE59" s="22"/>
       <c r="BF59" s="22"/>
     </row>
-    <row r="60" spans="1:58">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
@@ -8360,11 +8078,11 @@
       <c r="Y60" s="22"/>
       <c r="Z60" s="22"/>
       <c r="AA60" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AB60" s="21"/>
       <c r="AC60" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AD60" s="22"/>
       <c r="AE60" s="21"/>
@@ -8396,7 +8114,7 @@
       <c r="BE60" s="22"/>
       <c r="BF60" s="22"/>
     </row>
-    <row r="61" spans="1:58">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="31"/>
       <c r="C61" s="21"/>
       <c r="D61" s="21"/>
@@ -8455,1329 +8173,1389 @@
       <c r="BE61" s="22"/>
       <c r="BF61" s="22"/>
     </row>
-    <row r="62" spans="1:58">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AC62" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="U2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AN2"/>
     <mergeCell ref="AO2:AT2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="U2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B3:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83333333333333"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:10">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="J5" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="J5" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="J7" t="s">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="J7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="J8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="J8" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="J9" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="J10" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
+      <c r="D12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83333333333333"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83333333333333"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83333333333333"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83333333333333"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83333333333333"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83333333333333"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A6:S56"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C34" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J64" activeCellId="0" sqref="J64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.83333333333333"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="1:19">
-      <c r="C6" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10" t="n">
         <v>43466</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="10" t="n">
         <v>43466</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="10" t="n">
         <v>43466</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10" t="n">
         <v>43466</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="10" t="n">
         <v>43466</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="10" t="n">
         <v>43466</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10" t="n">
         <v>43466</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="10" t="n">
         <v>43497</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="10" t="n">
         <v>43466</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="10" t="n">
         <v>43466</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="10" t="n">
         <v>43497</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="10" t="n">
         <v>43466</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10" t="n">
         <v>43497</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="10" t="n">
         <v>43497</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="10" t="n">
         <v>43497</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="10" t="n">
         <v>43497</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="10" t="n">
         <v>43497</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="10" t="n">
         <v>43497</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="10" t="n">
         <v>43497</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="10" t="n">
         <v>43497</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="3:15">
-      <c r="K20">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="3:15">
-      <c r="C21" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="0" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="3:15">
-      <c r="E22" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="3:15">
-      <c r="E23" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="3:15">
-      <c r="C26" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:15">
-      <c r="E27" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="0" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="3:15">
-      <c r="E28" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="3:15">
-      <c r="L29">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="3:15">
-      <c r="L30">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L30" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O30" t="s">
+      <c r="O30" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="3:15">
-      <c r="I32" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O32" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="3:15">
-      <c r="I33">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="10" t="n">
         <v>43466</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="O33" t="s">
+      <c r="O33" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="3:15">
-      <c r="I34">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="10" t="n">
         <v>43466</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O34" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="3:15">
-      <c r="I35">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="10" t="n">
         <v>43497</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="3:15">
-      <c r="I36">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I36" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="0" t="n">
         <v>700</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="10" t="n">
         <v>43497</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="0" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="3:15">
-      <c r="C38" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="0" t="n">
         <v>1455678</v>
       </c>
     </row>
-    <row r="39" spans="3:15">
-      <c r="C39" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="0" t="n">
         <v>1455679</v>
       </c>
     </row>
-    <row r="40" spans="3:15">
-      <c r="C40" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="J40" s="15" t="s">
+      <c r="J40" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="11" t="n">
         <v>1455680</v>
       </c>
     </row>
-    <row r="46" spans="3:15">
-      <c r="J46" t="s">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J46" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="0" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="3:15">
-      <c r="J47" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="3:15">
-      <c r="J48" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J48" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="6:14">
-      <c r="G49" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="6:14">
-      <c r="F50" t="s">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="6:14">
-      <c r="G51" t="s">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="6:14">
-      <c r="M52" t="s">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M52" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="53" spans="6:14">
-      <c r="F53" t="s">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="6:14">
-      <c r="J54">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J54" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="0" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="6:14">
-      <c r="M56" t="s">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M56" s="0" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>